--- a/temp/imputed-positive-comparison.xlsx
+++ b/temp/imputed-positive-comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX60"/>
+  <dimension ref="A1:AW60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,225 +468,220 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>历史住院次数</t>
+          <t>吸烟</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>吸烟</t>
+          <t>饮酒</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>饮酒</t>
+          <t>过敏史</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>过敏史</t>
+          <t>冠心病</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>冠心病</t>
+          <t>高血压</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>高血压</t>
+          <t>2型糖尿病</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2型糖尿病</t>
+          <t>慢阻肺</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>慢阻肺</t>
+          <t>肺部感染</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>肺部感染</t>
+          <t>肺炎</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>肺炎</t>
+          <t>肝/肾功能异常</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>肝/肾功能异常</t>
+          <t>肿瘤</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>肿瘤</t>
+          <t>心房颤动</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>心房颤动</t>
+          <t>心力衰竭</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>心力衰竭</t>
+          <t>气管插管</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>气管插管</t>
+          <t>输血</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>输血</t>
+          <t>用药总数</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>用药总数</t>
+          <t>抗菌药物数目</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>抗菌药物数目</t>
+          <t>利尿剂</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>利尿剂</t>
+          <t>抗心律失常药</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>抗心律失常药</t>
+          <t>胃肠用药</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>胃肠用药</t>
+          <t>支气管扩张药</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>支气管扩张药</t>
+          <t>体温</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>体温</t>
+          <t>呼吸R</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>呼吸R</t>
+          <t>心率HR</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>心率HR</t>
+          <t>舒张压</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>舒张压</t>
+          <t>收缩压</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>收缩压</t>
+          <t>尿酸(UA)</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>尿酸(UA)</t>
+          <t>(AST/ALT)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>(AST/ALT)</t>
+          <t>尿素(Urea)</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>尿素(Urea)</t>
+          <t>白蛋白(ALB)</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>白蛋白(ALB)</t>
+          <t>总胆红素(TBIL)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>总胆红素(TBIL)</t>
+          <t>肌酐(Crea)</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>肌酐(Crea)</t>
+          <t>碱性磷酸酶(ALP)</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>碱性磷酸酶(ALP)</t>
+          <t>总蛋白(TP)</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>总蛋白(TP)</t>
+          <t>钾离子(K+)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>钾离子(K+)</t>
+          <t>氯离子(Cl-)</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>氯离子(Cl-)</t>
+          <t>钙离子(Ca2+)</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>钙离子(Ca2+)</t>
+          <t>钠离子(Na+)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>钠离子(Na+)</t>
+          <t>白细胞计数(WBC#)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>白细胞计数(WBC#)</t>
+          <t>血小板计数(PLT#)</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>血小板计数(PLT#)</t>
+          <t>红细胞比容(Hct)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>红细胞比容(Hct)</t>
+          <t>红细胞计数(RBC#)</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>红细胞计数(RBC#)</t>
+          <t>血红蛋白(Hb)</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>血红蛋白(Hb)</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>不良反应</t>
         </is>
@@ -711,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -720,19 +715,19 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
@@ -741,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -750,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -759,13 +754,13 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -774,75 +769,72 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="AD2" t="n">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>60</v>
+        <v>499</v>
       </c>
       <c r="AG2" t="n">
-        <v>499</v>
+        <v>3.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.75</v>
+        <v>41.23</v>
       </c>
       <c r="AI2" t="n">
-        <v>41.23</v>
+        <v>28.6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28.6</v>
+        <v>1.7</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.7</v>
+        <v>126.9</v>
       </c>
       <c r="AL2" t="n">
-        <v>126.9</v>
+        <v>121</v>
       </c>
       <c r="AM2" t="n">
-        <v>121</v>
+        <v>54.95</v>
       </c>
       <c r="AN2" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="AO2" t="n">
         <v>4.1</v>
       </c>
-      <c r="AP2" s="2" t="n">
-        <v>102.4053114044815</v>
+      <c r="AO2" s="2" t="n">
+        <v>102.4020335647505</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.96</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.96</v>
+        <v>149</v>
       </c>
       <c r="AR2" t="n">
-        <v>149</v>
+        <v>7.52</v>
       </c>
       <c r="AS2" t="n">
-        <v>7.52</v>
+        <v>92</v>
       </c>
       <c r="AT2" t="n">
-        <v>92</v>
+        <v>25.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>25.4</v>
+        <v>2.76</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.76</v>
+        <v>94</v>
       </c>
       <c r="AW2" t="n">
-        <v>94</v>
-      </c>
-      <c r="AX2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -865,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -877,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -904,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -928,75 +920,72 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>36.5</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="AD3" t="n">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="n">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>110</v>
+        <v>94.8</v>
       </c>
       <c r="AG3" t="n">
-        <v>94.8</v>
+        <v>1.84</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.84</v>
+        <v>7.2</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.2</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>35.9</v>
       </c>
       <c r="AK3" t="n">
-        <v>35.9</v>
+        <v>69.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>69.5</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>44.9</v>
       </c>
       <c r="AN3" t="n">
-        <v>44.9</v>
+        <v>4.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.2</v>
+        <v>102.1</v>
       </c>
       <c r="AP3" t="n">
-        <v>102.1</v>
+        <v>2.24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.24</v>
+        <v>132.9</v>
       </c>
       <c r="AR3" t="n">
-        <v>132.9</v>
+        <v>5.49</v>
       </c>
       <c r="AS3" t="n">
-        <v>5.49</v>
+        <v>89</v>
       </c>
       <c r="AT3" t="n">
-        <v>89</v>
+        <v>37.3</v>
       </c>
       <c r="AU3" t="n">
-        <v>37.3</v>
+        <v>3.66</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.66</v>
+        <v>123</v>
       </c>
       <c r="AW3" t="n">
-        <v>123</v>
-      </c>
-      <c r="AX3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1019,28 +1008,28 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -1064,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>1</v>
@@ -1082,75 +1071,72 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>36.5</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="AE4" t="n">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="AF4" t="n">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="AG4" t="n">
-        <v>247</v>
+        <v>4.15</v>
       </c>
       <c r="AH4" t="n">
-        <v>4.15</v>
+        <v>4.89</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.89</v>
+        <v>30.9</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30.9</v>
+        <v>38.3</v>
       </c>
       <c r="AK4" t="n">
-        <v>38.3</v>
+        <v>35</v>
       </c>
       <c r="AL4" t="n">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="AM4" t="n">
-        <v>88</v>
+        <v>62.3</v>
       </c>
       <c r="AN4" t="n">
-        <v>62.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.2</v>
+        <v>95</v>
       </c>
       <c r="AP4" t="n">
-        <v>95</v>
+        <v>1.87</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.87</v>
+        <v>134</v>
       </c>
       <c r="AR4" t="n">
-        <v>134</v>
+        <v>6.8</v>
       </c>
       <c r="AS4" t="n">
-        <v>6.8</v>
+        <v>274</v>
       </c>
       <c r="AT4" t="n">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="AU4" t="n">
-        <v>37</v>
+        <v>3.97</v>
       </c>
       <c r="AV4" t="n">
-        <v>3.97</v>
+        <v>125</v>
       </c>
       <c r="AW4" t="n">
-        <v>125</v>
-      </c>
-      <c r="AX4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1172,13 +1158,13 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
@@ -1191,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -1218,93 +1204,90 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>37.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>37.8</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD5" t="n">
         <v>110</v>
       </c>
+      <c r="AD5" s="2" t="n">
+        <v>67.06225415623489</v>
+      </c>
       <c r="AE5" s="2" t="n">
-        <v>67.20591025394373</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>113.5759016644332</v>
+        <v>113.4331859203299</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>554.9</v>
       </c>
       <c r="AG5" t="n">
-        <v>554.9</v>
+        <v>1.54</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.54</v>
+        <v>7.18</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.18</v>
+        <v>33.1</v>
       </c>
       <c r="AJ5" t="n">
-        <v>33.1</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>9</v>
+        <v>72.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>72.5</v>
+        <v>152.8</v>
       </c>
       <c r="AM5" t="n">
-        <v>152.8</v>
+        <v>61.1</v>
       </c>
       <c r="AN5" t="n">
-        <v>61.1</v>
+        <v>4.53</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.53</v>
+        <v>93.8</v>
       </c>
       <c r="AP5" t="n">
-        <v>93.8</v>
+        <v>1.98</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.98</v>
+        <v>139.7</v>
       </c>
       <c r="AR5" t="n">
-        <v>139.7</v>
+        <v>7.42</v>
       </c>
       <c r="AS5" t="n">
-        <v>7.42</v>
+        <v>86</v>
       </c>
       <c r="AT5" t="n">
-        <v>86</v>
+        <v>62.9</v>
       </c>
       <c r="AU5" t="n">
-        <v>62.9</v>
+        <v>6.11</v>
       </c>
       <c r="AV5" t="n">
-        <v>6.11</v>
+        <v>182</v>
       </c>
       <c r="AW5" t="n">
-        <v>182</v>
-      </c>
-      <c r="AX5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1327,138 +1310,135 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AB6" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="AD6" t="n">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AE6" t="n">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="n">
-        <v>118</v>
+        <v>456.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>456.4</v>
+        <v>2.07</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.07</v>
+        <v>10.65</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.65</v>
+        <v>39.7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>39.7</v>
+        <v>18.4</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.4</v>
+        <v>163.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>163.5</v>
+        <v>72</v>
       </c>
       <c r="AM6" t="n">
-        <v>72</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="AN6" t="n">
-        <v>68.09999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.3</v>
+        <v>109.8</v>
       </c>
       <c r="AP6" t="n">
-        <v>109.8</v>
+        <v>2.18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.18</v>
+        <v>150.9</v>
       </c>
       <c r="AR6" t="n">
-        <v>150.9</v>
+        <v>8.27</v>
       </c>
       <c r="AS6" t="n">
-        <v>8.27</v>
+        <v>115</v>
       </c>
       <c r="AT6" t="n">
-        <v>115</v>
+        <v>30.7</v>
       </c>
       <c r="AU6" t="n">
-        <v>30.7</v>
+        <v>3.43</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.43</v>
+        <v>102</v>
       </c>
       <c r="AW6" t="n">
-        <v>102</v>
-      </c>
-      <c r="AX6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1490,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -1508,16 +1488,16 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1526,93 +1506,90 @@
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>36.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>36.8</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="AD7" t="n">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="n">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AF7" t="n">
-        <v>132</v>
+        <v>557.7</v>
       </c>
       <c r="AG7" t="n">
-        <v>557.7</v>
+        <v>0.85</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.85</v>
+        <v>10.9</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.9</v>
+        <v>41.2</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41.2</v>
+        <v>20.1</v>
       </c>
       <c r="AK7" t="n">
-        <v>20.1</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AL7" t="n">
-        <v>90.09999999999999</v>
+        <v>164.2</v>
       </c>
       <c r="AM7" t="n">
-        <v>164.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="AN7" t="n">
-        <v>68.09999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.9</v>
+        <v>93</v>
       </c>
       <c r="AP7" t="n">
-        <v>93</v>
+        <v>1.9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.9</v>
+        <v>134</v>
       </c>
       <c r="AR7" t="n">
-        <v>134</v>
+        <v>16.64</v>
       </c>
       <c r="AS7" t="n">
-        <v>16.64</v>
+        <v>302</v>
       </c>
       <c r="AT7" t="n">
-        <v>302</v>
+        <v>37.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>37.4</v>
+        <v>4.1</v>
       </c>
       <c r="AV7" t="n">
-        <v>4.1</v>
+        <v>123</v>
       </c>
       <c r="AW7" t="n">
-        <v>123</v>
-      </c>
-      <c r="AX7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1653,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -1680,16 +1657,16 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>1</v>
@@ -1698,75 +1675,72 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>36.5</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="AD8" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AE8" t="n">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="n">
-        <v>95</v>
+        <v>0.31</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.31</v>
+        <v>5.9</v>
       </c>
       <c r="AI8" t="n">
-        <v>5.9</v>
+        <v>29.4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29.4</v>
+        <v>20.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>20.3</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="AM8" t="n">
-        <v>70.59999999999999</v>
+        <v>51.8</v>
       </c>
       <c r="AN8" t="n">
-        <v>51.8</v>
+        <v>2.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.6</v>
+        <v>87</v>
       </c>
       <c r="AP8" t="n">
-        <v>87</v>
+        <v>1.85</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.85</v>
+        <v>141</v>
       </c>
       <c r="AR8" t="n">
-        <v>141</v>
+        <v>6.15</v>
       </c>
       <c r="AS8" t="n">
-        <v>6.15</v>
+        <v>149</v>
       </c>
       <c r="AT8" t="n">
-        <v>149</v>
+        <v>39.3</v>
       </c>
       <c r="AU8" t="n">
-        <v>39.3</v>
+        <v>3.99</v>
       </c>
       <c r="AV8" t="n">
-        <v>3.99</v>
+        <v>126</v>
       </c>
       <c r="AW8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1789,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1801,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1822,28 +1796,28 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -1852,75 +1826,72 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AD9" t="n">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="n">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AF9" t="n">
-        <v>126</v>
+        <v>445</v>
       </c>
       <c r="AG9" t="n">
-        <v>445</v>
+        <v>1.37</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.37</v>
+        <v>11.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.5</v>
+        <v>38.4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38.4</v>
+        <v>28.3</v>
       </c>
       <c r="AK9" t="n">
-        <v>28.3</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="n">
-        <v>127</v>
+        <v>82.3</v>
       </c>
       <c r="AM9" t="n">
-        <v>82.3</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="AN9" t="n">
-        <v>65.09999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.3</v>
+        <v>105</v>
       </c>
       <c r="AP9" t="n">
-        <v>105</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.2</v>
+        <v>141</v>
       </c>
       <c r="AR9" t="n">
-        <v>141</v>
+        <v>10.64</v>
       </c>
       <c r="AS9" t="n">
-        <v>10.64</v>
+        <v>457</v>
       </c>
       <c r="AT9" t="n">
-        <v>457</v>
+        <v>36.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>36.5</v>
+        <v>3.93</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.93</v>
+        <v>115</v>
       </c>
       <c r="AW9" t="n">
-        <v>115</v>
-      </c>
-      <c r="AX9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1961,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1988,93 +1959,90 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>36.6</v>
+        <v>22</v>
       </c>
       <c r="AC10" t="n">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="AD10" t="n">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="n">
-        <v>82</v>
-      </c>
-      <c r="AF10" t="n">
         <v>110</v>
       </c>
+      <c r="AF10" s="2" t="n">
+        <v>200.7152428015534</v>
+      </c>
       <c r="AG10" s="2" t="n">
-        <v>187.9082469630052</v>
+        <v>1.750624307181725</v>
       </c>
       <c r="AH10" s="2" t="n">
-        <v>1.748507987015212</v>
+        <v>7.144997630420233</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>6.821888786426342</v>
+        <v>31.62574492971792</v>
       </c>
       <c r="AJ10" s="2" t="n">
-        <v>31.48799540702849</v>
+        <v>18.9159119648375</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>18.91098245687275</v>
+        <v>78.678709803554</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>76.32734599799329</v>
+        <v>100.1201501901619</v>
       </c>
       <c r="AM10" s="2" t="n">
-        <v>100.1107479466323</v>
-      </c>
-      <c r="AN10" s="2" t="n">
-        <v>56.104201226172</v>
+        <v>56.26348899635389</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.3</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.3</v>
+        <v>95.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>95.5</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.4</v>
+        <v>142.1</v>
       </c>
       <c r="AR10" t="n">
-        <v>142.1</v>
+        <v>8.08</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.08</v>
+        <v>180</v>
       </c>
       <c r="AT10" t="n">
-        <v>180</v>
+        <v>49.1</v>
       </c>
       <c r="AU10" t="n">
-        <v>49.1</v>
+        <v>4.99</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.99</v>
+        <v>153</v>
       </c>
       <c r="AW10" t="n">
-        <v>153</v>
-      </c>
-      <c r="AX10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2115,10 +2083,10 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -2142,93 +2110,90 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>124</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>1.763247676206733</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>31.84402589351102</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>18.95872302511068</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>100.1307347792053</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>56.63764811595998</v>
+      </c>
+      <c r="AN11" t="n">
         <v>3</v>
       </c>
-      <c r="W11" t="n">
-        <v>2</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>140</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>124</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>1.764258088930285</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>31.83757359967163</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>18.95710089786938</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>100.1293734801499</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>56.64331072037187</v>
-      </c>
       <c r="AO11" t="n">
-        <v>3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AP11" t="n">
-        <v>93.90000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.21</v>
+        <v>141</v>
       </c>
       <c r="AR11" t="n">
-        <v>141</v>
+        <v>7.22</v>
       </c>
       <c r="AS11" t="n">
-        <v>7.22</v>
+        <v>192</v>
       </c>
       <c r="AT11" t="n">
-        <v>192</v>
+        <v>41.1</v>
       </c>
       <c r="AU11" t="n">
-        <v>41.1</v>
+        <v>4.12</v>
       </c>
       <c r="AV11" t="n">
-        <v>4.12</v>
+        <v>139</v>
       </c>
       <c r="AW11" t="n">
-        <v>139</v>
-      </c>
-      <c r="AX11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2257,25 +2222,25 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -2290,99 +2255,96 @@
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
         <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>36.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>36.9</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="AD12" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="AE12" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="AG12" t="n">
-        <v>182</v>
+        <v>1.51</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.51</v>
+        <v>6.85</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.85</v>
+        <v>26.3</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26.3</v>
+        <v>18.6</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.6</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="AM12" t="n">
-        <v>121</v>
+        <v>53.8</v>
       </c>
       <c r="AN12" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="AO12" t="n">
         <v>3.2</v>
       </c>
+      <c r="AO12" s="2" t="n">
+        <v>100.3102046715336</v>
+      </c>
       <c r="AP12" s="2" t="n">
-        <v>100.308891366114</v>
+        <v>2.039288299024273</v>
       </c>
       <c r="AQ12" s="2" t="n">
-        <v>2.039406799764188</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>139.0854021937</v>
+        <v>139.0795901090404</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="AT12" t="n">
-        <v>277</v>
+        <v>34</v>
       </c>
       <c r="AU12" t="n">
-        <v>34</v>
+        <v>4.03</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.03</v>
+        <v>108</v>
       </c>
       <c r="AW12" t="n">
-        <v>108</v>
-      </c>
-      <c r="AX12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2438,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2450,13 +2412,13 @@
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
@@ -2468,75 +2430,72 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>37.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>37.6</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="AD13" t="n">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="AE13" t="n">
-        <v>52</v>
-      </c>
-      <c r="AF13" t="n">
         <v>102</v>
       </c>
+      <c r="AF13" s="2" t="n">
+        <v>367.7793217359003</v>
+      </c>
       <c r="AG13" s="2" t="n">
-        <v>366.6498901831552</v>
+        <v>1.850036175181586</v>
       </c>
       <c r="AH13" s="2" t="n">
-        <v>1.849728008280871</v>
+        <v>16.10940401665257</v>
       </c>
       <c r="AI13" s="2" t="n">
-        <v>16.09972277154273</v>
+        <v>33.17774970042225</v>
       </c>
       <c r="AJ13" s="2" t="n">
-        <v>33.16297301945508</v>
+        <v>19.14700454656785</v>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>19.14700771407402</v>
+        <v>115.3329226158968</v>
       </c>
       <c r="AL13" s="2" t="n">
-        <v>115.1634364927172</v>
+        <v>100.2321766413928</v>
       </c>
       <c r="AM13" s="2" t="n">
-        <v>100.2315959212568</v>
-      </c>
-      <c r="AN13" s="2" t="n">
-        <v>57.25387843499523</v>
+        <v>57.29068681409777</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.5</v>
+        <v>111</v>
       </c>
       <c r="AP13" t="n">
-        <v>111</v>
+        <v>2.04</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.04</v>
+        <v>143</v>
       </c>
       <c r="AR13" t="n">
-        <v>143</v>
+        <v>7.3</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.3</v>
+        <v>123</v>
       </c>
       <c r="AT13" t="n">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="AU13" t="n">
-        <v>37</v>
+        <v>3.76</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.76</v>
+        <v>118</v>
       </c>
       <c r="AW13" t="n">
-        <v>118</v>
-      </c>
-      <c r="AX13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2559,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2568,22 +2527,22 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -2592,10 +2551,10 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2604,13 +2563,13 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
         <v>2</v>
@@ -2619,78 +2578,75 @@
         <v>2</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AC14" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="AD14" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE14" t="n">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="AF14" t="n">
-        <v>112</v>
+        <v>376.3</v>
       </c>
       <c r="AG14" t="n">
-        <v>376.3</v>
+        <v>0.42</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.42</v>
+        <v>6.03</v>
       </c>
       <c r="AI14" t="n">
-        <v>6.03</v>
+        <v>32.3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32.3</v>
+        <v>26.9</v>
       </c>
       <c r="AK14" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="AL14" t="n">
         <v>95.59999999999999</v>
       </c>
+      <c r="AL14" s="2" t="n">
+        <v>100.286363911262</v>
+      </c>
       <c r="AM14" s="2" t="n">
-        <v>100.28691289182</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>63.67648798064945</v>
+        <v>63.55425927228968</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.97</v>
       </c>
       <c r="AO14" t="n">
-        <v>3.97</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="AP14" t="n">
-        <v>99.68000000000001</v>
+        <v>1.88</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.88</v>
+        <v>129.75</v>
       </c>
       <c r="AR14" t="n">
-        <v>129.75</v>
+        <v>9.75</v>
       </c>
       <c r="AS14" t="n">
-        <v>9.75</v>
+        <v>173</v>
       </c>
       <c r="AT14" t="n">
-        <v>173</v>
+        <v>34.2</v>
       </c>
       <c r="AU14" t="n">
-        <v>34.2</v>
+        <v>3.66</v>
       </c>
       <c r="AV14" t="n">
-        <v>3.66</v>
+        <v>109</v>
       </c>
       <c r="AW14" t="n">
-        <v>109</v>
-      </c>
-      <c r="AX14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2725,19 +2681,19 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -2758,93 +2714,90 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>36.6</v>
+        <v>16</v>
       </c>
       <c r="AC15" t="n">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="AD15" t="n">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="n">
-        <v>80</v>
+        <v>374.9</v>
       </c>
       <c r="AG15" t="n">
-        <v>374.9</v>
+        <v>1.78</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.78</v>
+        <v>11.83</v>
       </c>
       <c r="AI15" t="n">
-        <v>11.83</v>
+        <v>36.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>36.5</v>
+        <v>17.2</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AL15" t="n">
-        <v>97.90000000000001</v>
+        <v>61</v>
       </c>
       <c r="AM15" t="n">
-        <v>61</v>
+        <v>59.7</v>
       </c>
       <c r="AN15" t="n">
-        <v>59.7</v>
+        <v>4.16</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.16</v>
+        <v>104.8</v>
       </c>
       <c r="AP15" t="n">
-        <v>104.8</v>
+        <v>1.74</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.74</v>
+        <v>142.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>142.5</v>
+        <v>21.27</v>
       </c>
       <c r="AS15" t="n">
-        <v>21.27</v>
+        <v>168</v>
       </c>
       <c r="AT15" t="n">
-        <v>168</v>
+        <v>30.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>30.6</v>
+        <v>3.25</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.25</v>
+        <v>101</v>
       </c>
       <c r="AW15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AX15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2876,28 +2829,28 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -2912,16 +2865,16 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>1</v>
@@ -2930,75 +2883,72 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>36.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>36.7</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="AD16" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AE16" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AF16" t="n">
-        <v>102</v>
+        <v>379.61</v>
       </c>
       <c r="AG16" t="n">
-        <v>379.61</v>
+        <v>1.12</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.12</v>
+        <v>12.44</v>
       </c>
       <c r="AI16" t="n">
-        <v>12.44</v>
+        <v>31.43</v>
       </c>
       <c r="AJ16" t="n">
-        <v>31.43</v>
+        <v>39.63</v>
       </c>
       <c r="AK16" t="n">
-        <v>39.63</v>
+        <v>144.16</v>
       </c>
       <c r="AL16" t="n">
-        <v>144.16</v>
+        <v>98.16</v>
       </c>
       <c r="AM16" t="n">
-        <v>98.16</v>
+        <v>58.02</v>
       </c>
       <c r="AN16" t="n">
-        <v>58.02</v>
+        <v>3.38</v>
       </c>
       <c r="AO16" t="n">
-        <v>3.38</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AP16" t="n">
-        <v>90.09999999999999</v>
+        <v>2.49</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.49</v>
+        <v>144.56</v>
       </c>
       <c r="AR16" t="n">
-        <v>144.56</v>
+        <v>23.48</v>
       </c>
       <c r="AS16" t="n">
-        <v>23.48</v>
+        <v>252</v>
       </c>
       <c r="AT16" t="n">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="AU16" t="n">
-        <v>38</v>
+        <v>4.03</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.03</v>
+        <v>129</v>
       </c>
       <c r="AW16" t="n">
-        <v>129</v>
-      </c>
-      <c r="AX16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3027,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -3042,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -3084,75 +3034,72 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>36.5</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="n">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="AD17" t="n">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="AE17" t="n">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="n">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="AG17" t="n">
-        <v>362</v>
+        <v>1.27</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.27</v>
+        <v>7.3</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.3</v>
+        <v>38.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>38.5</v>
+        <v>7.4</v>
       </c>
       <c r="AK17" t="n">
-        <v>7.4</v>
+        <v>85</v>
       </c>
       <c r="AL17" t="n">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="AM17" t="n">
-        <v>143</v>
+        <v>62.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>62.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.5</v>
+        <v>98</v>
       </c>
       <c r="AP17" t="n">
-        <v>98</v>
+        <v>2.19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2.19</v>
+        <v>135</v>
       </c>
       <c r="AR17" t="n">
-        <v>135</v>
+        <v>11.3</v>
       </c>
       <c r="AS17" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="AT17" t="n">
         <v>131</v>
       </c>
-      <c r="AU17" s="2" t="n">
-        <v>42.46723838466843</v>
+      <c r="AT17" s="2" t="n">
+        <v>42.34381741225641</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>4.26</v>
       </c>
       <c r="AV17" t="n">
-        <v>4.26</v>
+        <v>132</v>
       </c>
       <c r="AW17" t="n">
-        <v>132</v>
-      </c>
-      <c r="AX17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3184,10 +3131,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -3202,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -3220,93 +3167,90 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
         <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>36.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>36.1</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="AD18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>521.9</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="AK18" t="n">
         <v>85</v>
       </c>
-      <c r="AE18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>521.9</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>48.75</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>45.4</v>
-      </c>
       <c r="AL18" t="n">
-        <v>85</v>
+        <v>329</v>
       </c>
       <c r="AM18" t="n">
-        <v>329</v>
+        <v>49.3</v>
       </c>
       <c r="AN18" t="n">
-        <v>49.3</v>
+        <v>4.15</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.15</v>
+        <v>102.2</v>
       </c>
       <c r="AP18" t="n">
-        <v>102.2</v>
+        <v>1.61</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.61</v>
+        <v>133.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>133.5</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AS18" t="n">
-        <v>8.029999999999999</v>
+        <v>70</v>
       </c>
       <c r="AT18" t="n">
-        <v>70</v>
+        <v>26.9</v>
       </c>
       <c r="AU18" t="n">
-        <v>26.9</v>
+        <v>3.1</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.1</v>
+        <v>94</v>
       </c>
       <c r="AW18" t="n">
-        <v>94</v>
-      </c>
-      <c r="AX18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3338,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -3347,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -3362,10 +3306,10 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -3374,16 +3318,16 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
         <v>1</v>
@@ -3391,76 +3335,73 @@
       <c r="Z19" t="n">
         <v>1</v>
       </c>
-      <c r="AA19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="2" t="n">
-        <v>36.6776503967071</v>
+      <c r="AA19" s="2" t="n">
+        <v>36.67869034882143</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>40</v>
       </c>
       <c r="AC19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD19" t="n">
         <v>175</v>
       </c>
+      <c r="AD19" s="2" t="n">
+        <v>74.75788628031559</v>
+      </c>
       <c r="AE19" s="2" t="n">
-        <v>74.49924539239763</v>
-      </c>
-      <c r="AF19" s="2" t="n">
-        <v>130.6024102963514</v>
+        <v>130.6734079203539</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>406.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>406.5</v>
+        <v>3.67</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.67</v>
+        <v>10.6</v>
       </c>
       <c r="AI19" t="n">
-        <v>10.6</v>
+        <v>45.7</v>
       </c>
       <c r="AJ19" t="n">
-        <v>45.7</v>
+        <v>43.9</v>
       </c>
       <c r="AK19" t="n">
-        <v>43.9</v>
+        <v>133.6</v>
       </c>
       <c r="AL19" t="n">
-        <v>133.6</v>
+        <v>94</v>
       </c>
       <c r="AM19" t="n">
-        <v>94</v>
+        <v>72.8</v>
       </c>
       <c r="AN19" t="n">
-        <v>72.8</v>
+        <v>4.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>4.2</v>
+        <v>105.7</v>
       </c>
       <c r="AP19" t="n">
-        <v>105.7</v>
+        <v>2.23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.23</v>
+        <v>141.6</v>
       </c>
       <c r="AR19" t="n">
-        <v>141.6</v>
+        <v>7.42</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.42</v>
+        <v>85</v>
       </c>
       <c r="AT19" t="n">
-        <v>85</v>
+        <v>38.7</v>
       </c>
       <c r="AU19" t="n">
-        <v>38.7</v>
+        <v>3.98</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.98</v>
+        <v>121</v>
       </c>
       <c r="AW19" t="n">
-        <v>121</v>
-      </c>
-      <c r="AX19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3501,10 +3442,10 @@
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -3528,93 +3469,90 @@
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
         <v>2</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>36.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>36.2</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="AD20" t="n">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AE20" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AF20" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AG20" t="n">
-        <v>94</v>
+        <v>1.44</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.44</v>
+        <v>3.68</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.68</v>
+        <v>23.2</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23.2</v>
+        <v>6.4</v>
       </c>
       <c r="AK20" t="n">
-        <v>6.4</v>
+        <v>71</v>
       </c>
       <c r="AL20" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="n">
-        <v>45</v>
+        <v>46.3</v>
       </c>
       <c r="AN20" t="n">
-        <v>46.3</v>
+        <v>3.1</v>
       </c>
       <c r="AO20" t="n">
-        <v>3.1</v>
+        <v>102</v>
       </c>
       <c r="AP20" t="n">
-        <v>102</v>
+        <v>1.65</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.65</v>
+        <v>138</v>
       </c>
       <c r="AR20" t="n">
-        <v>138</v>
+        <v>7.4</v>
       </c>
       <c r="AS20" t="n">
-        <v>7.4</v>
+        <v>150</v>
       </c>
       <c r="AT20" t="n">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="AU20" t="n">
-        <v>37</v>
+        <v>4.1</v>
       </c>
       <c r="AV20" t="n">
-        <v>4.1</v>
+        <v>123</v>
       </c>
       <c r="AW20" t="n">
-        <v>123</v>
-      </c>
-      <c r="AX20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3639,17 +3577,17 @@
       <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="G21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -3658,10 +3596,10 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -3673,25 +3611,25 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>1</v>
@@ -3700,75 +3638,72 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>36.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>36.4</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="n">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="AD21" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="AE21" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="AF21" t="n">
-        <v>146</v>
-      </c>
-      <c r="AG21" t="n">
         <v>211</v>
       </c>
-      <c r="AH21" s="2" t="n">
-        <v>1.730097340640315</v>
-      </c>
-      <c r="AI21" t="n">
+      <c r="AG21" s="2" t="n">
+        <v>1.729199472724803</v>
+      </c>
+      <c r="AH21" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="AI21" s="2" t="n">
+        <v>32.45163047044261</v>
+      </c>
       <c r="AJ21" s="2" t="n">
-        <v>32.4521483794362</v>
-      </c>
-      <c r="AK21" s="2" t="n">
-        <v>18.77657522835531</v>
-      </c>
-      <c r="AL21" t="n">
+        <v>18.77815310180742</v>
+      </c>
+      <c r="AK21" t="n">
         <v>67</v>
       </c>
+      <c r="AL21" s="2" t="n">
+        <v>100.1722659680036</v>
+      </c>
       <c r="AM21" s="2" t="n">
-        <v>100.1713071405092</v>
-      </c>
-      <c r="AN21" s="2" t="n">
-        <v>60.83997118137432</v>
+        <v>60.87695808200038</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>2.4</v>
+        <v>93</v>
       </c>
       <c r="AP21" t="n">
-        <v>93</v>
+        <v>2.06</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.06</v>
+        <v>140</v>
       </c>
       <c r="AR21" t="n">
-        <v>140</v>
+        <v>17.3</v>
       </c>
       <c r="AS21" t="n">
-        <v>17.3</v>
+        <v>272</v>
       </c>
       <c r="AT21" t="n">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="AU21" t="n">
-        <v>42</v>
+        <v>4.51</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.51</v>
+        <v>127</v>
       </c>
       <c r="AW21" t="n">
-        <v>127</v>
-      </c>
-      <c r="AX21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3800,19 +3735,19 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -3827,102 +3762,99 @@
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>36.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>36.9</v>
+        <v>18</v>
       </c>
       <c r="AC22" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="AD22" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="AE22" t="n">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="AF22" t="n">
-        <v>154</v>
+        <v>790</v>
       </c>
       <c r="AG22" t="n">
-        <v>790</v>
+        <v>1.67</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.67</v>
+        <v>15.24</v>
       </c>
       <c r="AI22" t="n">
-        <v>15.24</v>
+        <v>36.3</v>
       </c>
       <c r="AJ22" t="n">
-        <v>36.3</v>
+        <v>18.2</v>
       </c>
       <c r="AK22" t="n">
-        <v>18.2</v>
+        <v>274</v>
       </c>
       <c r="AL22" t="n">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="AM22" t="n">
-        <v>63</v>
+        <v>58.6</v>
       </c>
       <c r="AN22" t="n">
-        <v>58.6</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" t="n">
-        <v>3.9</v>
+        <v>107</v>
       </c>
       <c r="AP22" t="n">
-        <v>107</v>
+        <v>2.11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.11</v>
+        <v>148</v>
       </c>
       <c r="AR22" t="n">
-        <v>148</v>
+        <v>18.1</v>
       </c>
       <c r="AS22" t="n">
-        <v>18.1</v>
+        <v>141</v>
       </c>
       <c r="AT22" t="n">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="AU22" t="n">
-        <v>31</v>
+        <v>3.45</v>
       </c>
       <c r="AV22" t="n">
-        <v>3.45</v>
+        <v>96</v>
       </c>
       <c r="AW22" t="n">
-        <v>96</v>
-      </c>
-      <c r="AX22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3954,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -3966,10 +3898,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
@@ -3984,10 +3916,10 @@
         <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>1</v>
@@ -4008,75 +3940,72 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AB23" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="AD23" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="AE23" t="n">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="AF23" t="n">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="AG23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>47</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>122</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO23" t="n">
         <v>88</v>
       </c>
-      <c r="AH23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>47</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>122</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AP23" t="n">
-        <v>88</v>
+        <v>1.92</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.92</v>
+        <v>132</v>
       </c>
       <c r="AR23" t="n">
-        <v>132</v>
+        <v>19.6</v>
       </c>
       <c r="AS23" t="n">
-        <v>19.6</v>
+        <v>591</v>
       </c>
       <c r="AT23" t="n">
-        <v>591</v>
+        <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>28</v>
+        <v>3.14</v>
       </c>
       <c r="AV23" t="n">
-        <v>3.14</v>
+        <v>84</v>
       </c>
       <c r="AW23" t="n">
-        <v>84</v>
-      </c>
-      <c r="AX23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4099,10 +4028,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -4117,10 +4046,10 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -4144,93 +4073,90 @@
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
         <v>2</v>
       </c>
       <c r="Z24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AB24" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="n">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AD24" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="AE24" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AF24" t="n">
+        <v>185</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO24" t="n">
         <v>101</v>
       </c>
-      <c r="AG24" t="n">
-        <v>185</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>4.4</v>
-      </c>
       <c r="AP24" t="n">
-        <v>101</v>
+        <v>2.11</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.11</v>
+        <v>140</v>
       </c>
       <c r="AR24" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="AT24" t="n">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="AU24" t="n">
-        <v>43</v>
+        <v>4.42</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.42</v>
+        <v>133</v>
       </c>
       <c r="AW24" t="n">
-        <v>133</v>
-      </c>
-      <c r="AX24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4262,34 +4188,34 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
         <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>2</v>
@@ -4298,93 +4224,90 @@
         <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>36.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>36.8</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AD25" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="AE25" t="n">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="AF25" t="n">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="AG25" t="n">
-        <v>142</v>
+        <v>1.85</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.85</v>
+        <v>15.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>15.5</v>
+        <v>34.4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34.4</v>
+        <v>57.1</v>
       </c>
       <c r="AK25" t="n">
-        <v>57.1</v>
+        <v>136.8</v>
       </c>
       <c r="AL25" t="n">
-        <v>136.8</v>
+        <v>118</v>
       </c>
       <c r="AM25" t="n">
-        <v>118</v>
+        <v>55.99</v>
       </c>
       <c r="AN25" t="n">
-        <v>55.99</v>
-      </c>
-      <c r="AO25" t="n">
         <v>4.4</v>
       </c>
-      <c r="AP25" s="2" t="n">
-        <v>101.2448833034678</v>
+      <c r="AO25" s="2" t="n">
+        <v>101.2477096584649</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.86</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.86</v>
+        <v>144</v>
       </c>
       <c r="AR25" t="n">
-        <v>144</v>
+        <v>12.69</v>
       </c>
       <c r="AS25" t="n">
-        <v>12.69</v>
+        <v>76</v>
       </c>
       <c r="AT25" t="n">
-        <v>76</v>
+        <v>21.7</v>
       </c>
       <c r="AU25" t="n">
-        <v>21.7</v>
+        <v>3.02</v>
       </c>
       <c r="AV25" t="n">
-        <v>3.02</v>
+        <v>73</v>
       </c>
       <c r="AW25" t="n">
-        <v>73</v>
-      </c>
-      <c r="AX25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4410,28 +4333,28 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -4452,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
@@ -4464,81 +4387,78 @@
         <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>36.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>36.7</v>
+        <v>18</v>
       </c>
       <c r="AC26" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="AD26" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="n">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="AF26" t="n">
-        <v>126</v>
+        <v>427</v>
       </c>
       <c r="AG26" t="n">
-        <v>427</v>
+        <v>0.78</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.78</v>
+        <v>6.85</v>
       </c>
       <c r="AI26" t="n">
-        <v>6.85</v>
+        <v>40.4</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40.4</v>
+        <v>26.2</v>
       </c>
       <c r="AK26" t="n">
-        <v>26.2</v>
+        <v>108</v>
       </c>
       <c r="AL26" t="n">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="AM26" t="n">
-        <v>69</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="AN26" t="n">
-        <v>69.90000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>4.2</v>
+        <v>99</v>
       </c>
       <c r="AP26" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="AR26" t="n">
-        <v>136</v>
+        <v>5.9</v>
       </c>
       <c r="AS26" t="n">
-        <v>5.9</v>
+        <v>181</v>
       </c>
       <c r="AT26" t="n">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="AU26" t="n">
-        <v>37</v>
+        <v>4.24</v>
       </c>
       <c r="AV26" t="n">
-        <v>4.24</v>
+        <v>116</v>
       </c>
       <c r="AW26" t="n">
-        <v>116</v>
-      </c>
-      <c r="AX26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4561,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -4576,13 +4496,13 @@
         <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -4606,93 +4526,90 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
         <v>1</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>36.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>36.5</v>
+        <v>24</v>
       </c>
       <c r="AC27" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AE27" t="n">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="AF27" t="n">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="AG27" t="n">
-        <v>372</v>
+        <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="AI27" t="n">
-        <v>11.7</v>
+        <v>26.4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26.4</v>
+        <v>4.3</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AL27" t="n">
         <v>263</v>
       </c>
-      <c r="AM27" s="2" t="n">
-        <v>100.1877622378604</v>
+      <c r="AL27" s="2" t="n">
+        <v>100.1878386555795</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>49.4</v>
       </c>
       <c r="AN27" t="n">
-        <v>49.4</v>
+        <v>3.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.4</v>
+        <v>103</v>
       </c>
       <c r="AP27" t="n">
-        <v>103</v>
+        <v>1.94</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.94</v>
+        <v>138</v>
       </c>
       <c r="AR27" t="n">
-        <v>138</v>
+        <v>6.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>6.5</v>
+        <v>113</v>
       </c>
       <c r="AT27" t="n">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="AU27" t="n">
-        <v>44</v>
+        <v>6.1</v>
       </c>
       <c r="AV27" t="n">
-        <v>6.1</v>
+        <v>143</v>
       </c>
       <c r="AW27" t="n">
-        <v>143</v>
-      </c>
-      <c r="AX27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4724,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
@@ -4733,13 +4650,13 @@
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
@@ -4760,93 +4677,90 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
         <v>2</v>
       </c>
       <c r="Y28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>1</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>36.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>36.3</v>
+        <v>34</v>
       </c>
       <c r="AC28" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AD28" t="n">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="AE28" t="n">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="AF28" t="n">
-        <v>180</v>
+        <v>769</v>
       </c>
       <c r="AG28" t="n">
-        <v>769</v>
+        <v>3.6</v>
       </c>
       <c r="AH28" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>282</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>59</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>64</v>
+      </c>
+      <c r="AN28" t="n">
         <v>3.6</v>
       </c>
-      <c r="AI28" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>282</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>59</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>64</v>
-      </c>
       <c r="AO28" t="n">
-        <v>3.6</v>
+        <v>102</v>
       </c>
       <c r="AP28" t="n">
-        <v>102</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.25</v>
+        <v>138</v>
       </c>
       <c r="AR28" t="n">
-        <v>138</v>
+        <v>17.8</v>
       </c>
       <c r="AS28" t="n">
-        <v>17.8</v>
+        <v>179</v>
       </c>
       <c r="AT28" t="n">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="AU28" t="n">
-        <v>32</v>
+        <v>3.51</v>
       </c>
       <c r="AV28" t="n">
-        <v>3.51</v>
+        <v>105</v>
       </c>
       <c r="AW28" t="n">
-        <v>105</v>
-      </c>
-      <c r="AX28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4869,16 +4783,16 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
@@ -4887,13 +4801,13 @@
         <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -4902,10 +4816,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -4914,16 +4828,16 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>1</v>
@@ -4932,75 +4846,72 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>36.6</v>
+        <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AD29" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AE29" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AF29" t="n">
-        <v>100</v>
+        <v>336</v>
       </c>
       <c r="AG29" t="n">
-        <v>336</v>
+        <v>0.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>34.1</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34.1</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="n">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AM29" t="n">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="AN29" t="n">
-        <v>70</v>
+        <v>3.9</v>
       </c>
       <c r="AO29" t="n">
-        <v>3.9</v>
+        <v>93</v>
       </c>
       <c r="AP29" t="n">
-        <v>93</v>
+        <v>2.3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2.3</v>
+        <v>129</v>
       </c>
       <c r="AR29" t="n">
-        <v>129</v>
+        <v>12.7</v>
       </c>
       <c r="AS29" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AT29" t="n">
         <v>217</v>
       </c>
-      <c r="AU29" s="2" t="n">
-        <v>52.99857117757203</v>
+      <c r="AT29" s="2" t="n">
+        <v>53.01968546519245</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>5.63</v>
       </c>
       <c r="AV29" t="n">
-        <v>5.63</v>
+        <v>173</v>
       </c>
       <c r="AW29" t="n">
-        <v>173</v>
-      </c>
-      <c r="AX29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5023,10 +4934,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -5035,16 +4946,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -5053,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
@@ -5068,10 +4979,10 @@
         <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
@@ -5080,81 +4991,78 @@
         <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>38.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>38.8</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="AD30" t="n">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="AE30" t="n">
-        <v>96</v>
-      </c>
-      <c r="AF30" t="n">
         <v>134</v>
       </c>
+      <c r="AF30" s="2" t="n">
+        <v>272.8524398066209</v>
+      </c>
       <c r="AG30" s="2" t="n">
-        <v>252.4231043994283</v>
+        <v>1.786906447628544</v>
       </c>
       <c r="AH30" s="2" t="n">
-        <v>1.778202927404661</v>
+        <v>7.212007616544524</v>
       </c>
       <c r="AI30" s="2" t="n">
-        <v>6.340209965695657</v>
+        <v>32.62153722104632</v>
       </c>
       <c r="AJ30" s="2" t="n">
-        <v>32.43365173407514</v>
+        <v>18.90882475363825</v>
       </c>
       <c r="AK30" s="2" t="n">
-        <v>18.89459138771803</v>
+        <v>92.99473966934636</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>88.91381431152836</v>
+        <v>100.1653445797477</v>
       </c>
       <c r="AM30" s="2" t="n">
-        <v>100.1523567379313</v>
+        <v>60.57829111435494</v>
       </c>
       <c r="AN30" s="2" t="n">
-        <v>60.39991610822047</v>
+        <v>3.659023009227192</v>
       </c>
       <c r="AO30" s="2" t="n">
-        <v>3.640292134895581</v>
+        <v>100.9360330816552</v>
       </c>
       <c r="AP30" s="2" t="n">
-        <v>100.8368239186429</v>
+        <v>2.061634303918192</v>
       </c>
       <c r="AQ30" s="2" t="n">
-        <v>2.064263786839311</v>
+        <v>139.4338142297463</v>
       </c>
       <c r="AR30" s="2" t="n">
-        <v>139.3944017282986</v>
+        <v>11.03050240452536</v>
       </c>
       <c r="AS30" s="2" t="n">
-        <v>10.88337516194693</v>
+        <v>205.0315166475338</v>
       </c>
       <c r="AT30" s="2" t="n">
-        <v>207.4994095263588</v>
+        <v>37.26005902606882</v>
       </c>
       <c r="AU30" s="2" t="n">
-        <v>38.60520181977894</v>
+        <v>3.859835714720195</v>
       </c>
       <c r="AV30" s="2" t="n">
-        <v>3.982654061620054</v>
-      </c>
-      <c r="AW30" s="2" t="n">
-        <v>122.2749552530901</v>
-      </c>
-      <c r="AX30" t="n">
+        <v>118.3483043575064</v>
+      </c>
+      <c r="AW30" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5176,35 +5084,35 @@
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
-        <v>10</v>
+      <c r="F31" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -5216,99 +5124,96 @@
         <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB31" s="2" t="n">
-        <v>36.71410678051363</v>
+        <v>2</v>
+      </c>
+      <c r="AA31" s="2" t="n">
+        <v>36.71753982613761</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>24</v>
       </c>
       <c r="AC31" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="AD31" t="n">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="n">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AF31" t="n">
-        <v>132</v>
+        <v>494</v>
       </c>
       <c r="AG31" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>9.65</v>
       </c>
       <c r="AI31" t="n">
-        <v>9.65</v>
+        <v>37.6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>37.6</v>
+        <v>22.7</v>
       </c>
       <c r="AK31" t="n">
-        <v>22.7</v>
+        <v>138.6</v>
       </c>
       <c r="AL31" t="n">
-        <v>138.6</v>
+        <v>95</v>
       </c>
       <c r="AM31" t="n">
-        <v>95</v>
+        <v>70.58</v>
       </c>
       <c r="AN31" t="n">
-        <v>70.58</v>
-      </c>
-      <c r="AO31" t="n">
         <v>3.3</v>
       </c>
-      <c r="AP31" s="2" t="n">
-        <v>101.6633580328479</v>
+      <c r="AO31" s="2" t="n">
+        <v>101.6563902354568</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.89</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.89</v>
+        <v>133</v>
       </c>
       <c r="AR31" t="n">
-        <v>133</v>
+        <v>23.73</v>
       </c>
       <c r="AS31" t="n">
-        <v>23.73</v>
+        <v>264</v>
       </c>
       <c r="AT31" t="n">
-        <v>264</v>
+        <v>36.7</v>
       </c>
       <c r="AU31" t="n">
-        <v>36.7</v>
+        <v>4.17</v>
       </c>
       <c r="AV31" t="n">
-        <v>4.17</v>
+        <v>124</v>
       </c>
       <c r="AW31" t="n">
-        <v>124</v>
-      </c>
-      <c r="AX31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5343,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
         <v>2</v>
@@ -5352,13 +5257,13 @@
         <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -5367,25 +5272,25 @@
         <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="n">
         <v>1</v>
@@ -5394,75 +5299,72 @@
         <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="n">
         <v>36.8</v>
       </c>
-      <c r="AC32" s="2" t="n">
-        <v>22.82617134481489</v>
+      <c r="AB32" s="2" t="n">
+        <v>22.83955739937073</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>567</v>
       </c>
       <c r="AD32" t="n">
-        <v>567</v>
+        <v>70</v>
       </c>
       <c r="AE32" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AF32" t="n">
+        <v>433</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>94</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO32" s="2" t="n">
+        <v>101.2200956079314</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>142</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AS32" t="n">
         <v>130</v>
       </c>
-      <c r="AG32" t="n">
-        <v>433</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>27.94</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>94</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>52.95</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AP32" s="2" t="n">
-        <v>101.2249578397225</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>142</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>10.34</v>
-      </c>
       <c r="AT32" t="n">
-        <v>130</v>
+        <v>48.6</v>
       </c>
       <c r="AU32" t="n">
-        <v>48.6</v>
+        <v>4.98</v>
       </c>
       <c r="AV32" t="n">
-        <v>4.98</v>
+        <v>147</v>
       </c>
       <c r="AW32" t="n">
-        <v>147</v>
-      </c>
-      <c r="AX32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5485,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -5494,13 +5396,13 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -5530,16 +5432,16 @@
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
         <v>1</v>
@@ -5548,75 +5450,72 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="n">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AD33" t="n">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="AE33" t="n">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="AF33" t="n">
-        <v>125</v>
+        <v>344.99</v>
       </c>
       <c r="AG33" t="n">
-        <v>344.99</v>
+        <v>0.89</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.89</v>
+        <v>3.08</v>
       </c>
       <c r="AI33" t="n">
-        <v>3.08</v>
+        <v>41.26</v>
       </c>
       <c r="AJ33" t="n">
-        <v>41.26</v>
+        <v>12.99</v>
       </c>
       <c r="AK33" t="n">
-        <v>12.99</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="AL33" t="n">
-        <v>72.34999999999999</v>
+        <v>90.11</v>
       </c>
       <c r="AM33" t="n">
-        <v>90.11</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="AN33" t="n">
-        <v>68.95999999999999</v>
+        <v>3.32</v>
       </c>
       <c r="AO33" t="n">
-        <v>3.32</v>
+        <v>107.72</v>
       </c>
       <c r="AP33" t="n">
-        <v>107.72</v>
+        <v>2.22</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.22</v>
+        <v>139.3</v>
       </c>
       <c r="AR33" t="n">
-        <v>139.3</v>
+        <v>15.68</v>
       </c>
       <c r="AS33" t="n">
-        <v>15.68</v>
+        <v>279</v>
       </c>
       <c r="AT33" t="n">
-        <v>279</v>
+        <v>40.4</v>
       </c>
       <c r="AU33" t="n">
-        <v>40.4</v>
+        <v>4.45</v>
       </c>
       <c r="AV33" t="n">
-        <v>4.45</v>
+        <v>135</v>
       </c>
       <c r="AW33" t="n">
-        <v>135</v>
-      </c>
-      <c r="AX33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5684,13 +5583,13 @@
         <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
         <v>1</v>
@@ -5701,76 +5600,73 @@
       <c r="Z34" t="n">
         <v>1</v>
       </c>
-      <c r="AA34" t="n">
-        <v>1</v>
+      <c r="AA34" s="2" t="n">
+        <v>36.66677349959787</v>
       </c>
       <c r="AB34" s="2" t="n">
-        <v>36.66764649990876</v>
-      </c>
-      <c r="AC34" s="2" t="n">
-        <v>22.34140449782618</v>
-      </c>
-      <c r="AD34" t="n">
+        <v>22.33680934746737</v>
+      </c>
+      <c r="AC34" t="n">
         <v>60</v>
       </c>
+      <c r="AD34" s="2" t="n">
+        <v>74.68018919248571</v>
+      </c>
       <c r="AE34" s="2" t="n">
-        <v>74.79193127255064</v>
+        <v>129.3956424971556</v>
       </c>
       <c r="AF34" s="2" t="n">
-        <v>129.5091288524405</v>
+        <v>351.4698901596601</v>
       </c>
       <c r="AG34" s="2" t="n">
-        <v>352.6407756946468</v>
+        <v>1.769731320924284</v>
       </c>
       <c r="AH34" s="2" t="n">
-        <v>1.769987886020218</v>
+        <v>5.776171023828459</v>
       </c>
       <c r="AI34" s="2" t="n">
-        <v>5.797887443372886</v>
+        <v>33.90347947718018</v>
       </c>
       <c r="AJ34" s="2" t="n">
-        <v>33.92476331068729</v>
+        <v>18.84516399145389</v>
       </c>
       <c r="AK34" s="2" t="n">
-        <v>18.84543154870768</v>
+        <v>104.1574347894082</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>104.3863946594832</v>
+        <v>100.2638519003254</v>
       </c>
       <c r="AM34" s="2" t="n">
-        <v>100.2648940907113</v>
-      </c>
-      <c r="AN34" s="2" t="n">
-        <v>63.66010328294159</v>
+        <v>63.61382683402842</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.07</v>
       </c>
       <c r="AO34" t="n">
-        <v>4.07</v>
+        <v>105.2</v>
       </c>
       <c r="AP34" t="n">
-        <v>105.2</v>
+        <v>2.12</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.12</v>
+        <v>140.7</v>
       </c>
       <c r="AR34" t="n">
-        <v>140.7</v>
+        <v>21.46</v>
       </c>
       <c r="AS34" t="n">
-        <v>21.46</v>
+        <v>272</v>
       </c>
       <c r="AT34" t="n">
-        <v>272</v>
+        <v>36.9</v>
       </c>
       <c r="AU34" t="n">
-        <v>36.9</v>
+        <v>3.86</v>
       </c>
       <c r="AV34" t="n">
-        <v>3.86</v>
+        <v>122</v>
       </c>
       <c r="AW34" t="n">
-        <v>122</v>
-      </c>
-      <c r="AX34" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5793,10 +5689,10 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -5805,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -5838,93 +5734,90 @@
         <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
         <v>2</v>
       </c>
       <c r="Y35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
         <v>1</v>
       </c>
-      <c r="AA35" t="n">
-        <v>1</v>
+      <c r="AA35" s="2" t="n">
+        <v>36.59982547526951</v>
       </c>
       <c r="AB35" s="2" t="n">
-        <v>36.60367641228277</v>
-      </c>
-      <c r="AC35" s="2" t="n">
-        <v>22.14758821308359</v>
+        <v>22.13557251424007</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>86</v>
       </c>
       <c r="AD35" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AE35" t="n">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AF35" t="n">
-        <v>136</v>
-      </c>
-      <c r="AG35" t="n">
         <v>210.2</v>
       </c>
-      <c r="AH35" s="2" t="n">
-        <v>1.78037486445529</v>
-      </c>
-      <c r="AI35" t="n">
+      <c r="AG35" s="2" t="n">
+        <v>1.77942693790245</v>
+      </c>
+      <c r="AH35" t="n">
         <v>3.42</v>
       </c>
+      <c r="AI35" s="2" t="n">
+        <v>32.15575884003245</v>
+      </c>
       <c r="AJ35" s="2" t="n">
-        <v>32.15211595702684</v>
-      </c>
-      <c r="AK35" s="2" t="n">
-        <v>18.95830508823462</v>
-      </c>
-      <c r="AL35" t="n">
+        <v>18.95947307640981</v>
+      </c>
+      <c r="AK35" t="n">
         <v>118.5</v>
       </c>
+      <c r="AL35" s="2" t="n">
+        <v>100.1404838217782</v>
+      </c>
       <c r="AM35" s="2" t="n">
-        <v>100.1392858757518</v>
-      </c>
-      <c r="AN35" s="2" t="n">
-        <v>58.22393915314606</v>
+        <v>58.2084377432876</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>3.02</v>
       </c>
       <c r="AO35" t="n">
-        <v>3.02</v>
+        <v>105.8</v>
       </c>
       <c r="AP35" t="n">
-        <v>105.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.95</v>
+        <v>143.1</v>
       </c>
       <c r="AR35" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="AS35" t="n">
         <v>5.64</v>
       </c>
-      <c r="AT35" s="2" t="n">
-        <v>217.1137828983775</v>
+      <c r="AS35" s="2" t="n">
+        <v>217.2183492524946</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>35.2</v>
       </c>
       <c r="AU35" t="n">
-        <v>35.2</v>
+        <v>3.81</v>
       </c>
       <c r="AV35" t="n">
-        <v>3.81</v>
+        <v>114</v>
       </c>
       <c r="AW35" t="n">
-        <v>114</v>
-      </c>
-      <c r="AX35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5947,22 +5840,22 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -5992,93 +5885,90 @@
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="n">
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>36.2</v>
       </c>
       <c r="AB36" t="n">
-        <v>36.2</v>
+        <v>20</v>
       </c>
       <c r="AC36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD36" t="n">
         <v>86</v>
       </c>
+      <c r="AD36" s="2" t="n">
+        <v>72.17446874790066</v>
+      </c>
       <c r="AE36" s="2" t="n">
-        <v>71.92648244542744</v>
+        <v>127.3209626931754</v>
       </c>
       <c r="AF36" s="2" t="n">
-        <v>126.7389071138004</v>
+        <v>354.6235055201038</v>
       </c>
       <c r="AG36" s="2" t="n">
-        <v>349.5419708891629</v>
+        <v>1.815298330090679</v>
       </c>
       <c r="AH36" s="2" t="n">
-        <v>1.812820413540308</v>
+        <v>9.190991142870667</v>
       </c>
       <c r="AI36" s="2" t="n">
-        <v>9.026070375869949</v>
+        <v>33.73880139558301</v>
       </c>
       <c r="AJ36" s="2" t="n">
-        <v>33.69332910161046</v>
+        <v>19.00826412524906</v>
       </c>
       <c r="AK36" s="2" t="n">
-        <v>19.0055332197506</v>
+        <v>109.8661530043959</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>108.8591163053444</v>
+        <v>100.2502455149446</v>
       </c>
       <c r="AM36" s="2" t="n">
-        <v>100.2478154163939</v>
+        <v>61.92068160841568</v>
       </c>
       <c r="AN36" s="2" t="n">
-        <v>61.80338575908939</v>
+        <v>3.70131482573758</v>
       </c>
       <c r="AO36" s="2" t="n">
-        <v>3.697331069994259</v>
+        <v>101.3961072181743</v>
       </c>
       <c r="AP36" s="2" t="n">
-        <v>101.3732698160297</v>
+        <v>2.049358619295835</v>
       </c>
       <c r="AQ36" s="2" t="n">
-        <v>2.049495177010239</v>
+        <v>139.5895824302017</v>
       </c>
       <c r="AR36" s="2" t="n">
-        <v>139.5796530637525</v>
+        <v>11.68109737825116</v>
       </c>
       <c r="AS36" s="2" t="n">
-        <v>11.64998217018534</v>
+        <v>201.7576387867036</v>
       </c>
       <c r="AT36" s="2" t="n">
-        <v>202.268996520735</v>
+        <v>35.22621624256862</v>
       </c>
       <c r="AU36" s="2" t="n">
-        <v>35.62219444748118</v>
+        <v>3.825844918433756</v>
       </c>
       <c r="AV36" s="2" t="n">
-        <v>3.859249869310318</v>
-      </c>
-      <c r="AW36" s="2" t="n">
-        <v>115.3426659818393</v>
-      </c>
-      <c r="AX36" t="n">
+        <v>114.225358854437</v>
+      </c>
+      <c r="AW36" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6101,31 +5991,31 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -6137,102 +6027,99 @@
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37" t="n">
         <v>1</v>
       </c>
-      <c r="AA37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="2" t="n">
-        <v>36.64977694042192</v>
+      <c r="AA37" s="2" t="n">
+        <v>36.65029764314262</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>20</v>
       </c>
       <c r="AC37" t="n">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD37" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE37" t="n">
-        <v>112</v>
-      </c>
-      <c r="AF37" t="n">
         <v>185</v>
       </c>
-      <c r="AG37" s="2" t="n">
-        <v>291.0024832593714</v>
-      </c>
-      <c r="AH37" t="n">
+      <c r="AF37" s="2" t="n">
+        <v>299.5275710672869</v>
+      </c>
+      <c r="AG37" t="n">
         <v>1.94</v>
       </c>
-      <c r="AI37" s="2" t="n">
-        <v>-0.3894528983162644</v>
+      <c r="AH37" s="2" t="n">
+        <v>-0.1470828904071695</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>27.9</v>
       </c>
       <c r="AJ37" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="AK37" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="AL37" s="2" t="n">
-        <v>96.46132019921134</v>
+      <c r="AK37" s="2" t="n">
+        <v>98.05835489028047</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>82</v>
       </c>
       <c r="AM37" t="n">
-        <v>82</v>
+        <v>58.8</v>
       </c>
       <c r="AN37" t="n">
-        <v>58.8</v>
+        <v>3.48</v>
       </c>
       <c r="AO37" t="n">
-        <v>3.48</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AP37" t="n">
-        <v>95.90000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.1</v>
+        <v>136.62</v>
       </c>
       <c r="AR37" t="n">
-        <v>136.62</v>
+        <v>10.27</v>
       </c>
       <c r="AS37" t="n">
-        <v>10.27</v>
+        <v>259</v>
       </c>
       <c r="AT37" t="n">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="AU37" t="n">
-        <v>38</v>
+        <v>3.82</v>
       </c>
       <c r="AV37" t="n">
-        <v>3.82</v>
+        <v>123</v>
       </c>
       <c r="AW37" t="n">
-        <v>123</v>
-      </c>
-      <c r="AX37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6261,19 +6148,19 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -6300,93 +6187,90 @@
         <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB38" t="n">
-        <v>36.6</v>
+        <v>22</v>
       </c>
       <c r="AC38" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AD38" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="n">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AF38" t="n">
-        <v>72</v>
+        <v>215.9</v>
       </c>
       <c r="AG38" t="n">
-        <v>215.9</v>
+        <v>3.15</v>
       </c>
       <c r="AH38" t="n">
-        <v>3.15</v>
+        <v>5.99</v>
       </c>
       <c r="AI38" t="n">
-        <v>5.99</v>
+        <v>36.3</v>
       </c>
       <c r="AJ38" t="n">
-        <v>36.3</v>
+        <v>18.6</v>
       </c>
       <c r="AK38" t="n">
-        <v>18.6</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AL38" t="n">
-        <v>84.40000000000001</v>
+        <v>128.8</v>
       </c>
       <c r="AM38" t="n">
-        <v>128.8</v>
+        <v>60.51</v>
       </c>
       <c r="AN38" t="n">
-        <v>60.51</v>
+        <v>3.7</v>
       </c>
       <c r="AO38" t="n">
-        <v>3.7</v>
+        <v>105.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>105.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.22</v>
+        <v>137</v>
       </c>
       <c r="AR38" t="n">
-        <v>137</v>
+        <v>9.15</v>
       </c>
       <c r="AS38" t="n">
-        <v>9.15</v>
+        <v>158</v>
       </c>
       <c r="AT38" t="n">
-        <v>158</v>
+        <v>36.8</v>
       </c>
       <c r="AU38" t="n">
-        <v>36.8</v>
+        <v>4.21</v>
       </c>
       <c r="AV38" t="n">
-        <v>4.21</v>
+        <v>117</v>
       </c>
       <c r="AW38" t="n">
-        <v>117</v>
-      </c>
-      <c r="AX38" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6409,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -6418,10 +6302,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -6445,102 +6329,99 @@
         <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z39" t="n">
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>36.2</v>
       </c>
       <c r="AB39" t="n">
-        <v>36.2</v>
+        <v>22</v>
       </c>
       <c r="AC39" t="n">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="AD39" t="n">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="AE39" t="n">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AF39" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG39" t="n">
         <v>176.8</v>
       </c>
-      <c r="AH39" s="2" t="n">
-        <v>1.706829673969958</v>
-      </c>
-      <c r="AI39" t="n">
+      <c r="AG39" s="2" t="n">
+        <v>1.70565644813758</v>
+      </c>
+      <c r="AH39" t="n">
         <v>3.46</v>
       </c>
+      <c r="AI39" s="2" t="n">
+        <v>31.43475025374835</v>
+      </c>
       <c r="AJ39" s="2" t="n">
-        <v>31.4289826169214</v>
-      </c>
-      <c r="AK39" s="2" t="n">
-        <v>18.59234610491896</v>
-      </c>
-      <c r="AL39" t="n">
+        <v>18.59439683677645</v>
+      </c>
+      <c r="AK39" t="n">
         <v>53.9</v>
       </c>
+      <c r="AL39" s="2" t="n">
+        <v>100.1076145586094</v>
+      </c>
       <c r="AM39" s="2" t="n">
-        <v>100.1059577854296</v>
-      </c>
-      <c r="AN39" s="2" t="n">
-        <v>57.88279674195574</v>
+        <v>57.88224320835258</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>3.38</v>
       </c>
       <c r="AO39" t="n">
-        <v>3.38</v>
+        <v>99.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>99.5</v>
+        <v>1.93</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.93</v>
+        <v>139.7</v>
       </c>
       <c r="AR39" t="n">
-        <v>139.7</v>
+        <v>8.52</v>
       </c>
       <c r="AS39" t="n">
-        <v>8.52</v>
+        <v>304</v>
       </c>
       <c r="AT39" t="n">
-        <v>304</v>
+        <v>32.8</v>
       </c>
       <c r="AU39" t="n">
-        <v>32.8</v>
+        <v>3.36</v>
       </c>
       <c r="AV39" t="n">
-        <v>3.36</v>
+        <v>108</v>
       </c>
       <c r="AW39" t="n">
-        <v>108</v>
-      </c>
-      <c r="AX39" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6563,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -6572,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
         <v>2</v>
@@ -6581,7 +6462,7 @@
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -6599,102 +6480,99 @@
         <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>1</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z40" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA40" s="2" t="n">
+        <v>36.59194658073387</v>
       </c>
       <c r="AB40" s="2" t="n">
-        <v>36.59782736089768</v>
-      </c>
-      <c r="AC40" s="2" t="n">
-        <v>22.08837169925681</v>
+        <v>22.07234869188018</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>160</v>
       </c>
       <c r="AD40" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE40" t="n">
         <v>160</v>
       </c>
-      <c r="AE40" t="n">
-        <v>100</v>
-      </c>
       <c r="AF40" t="n">
-        <v>160</v>
+        <v>142.2</v>
       </c>
       <c r="AG40" t="n">
-        <v>142.2</v>
+        <v>1.7</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.7</v>
+        <v>3.66</v>
       </c>
       <c r="AI40" t="n">
-        <v>3.66</v>
+        <v>36.1</v>
       </c>
       <c r="AJ40" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="AK40" t="n">
         <v>16.3</v>
       </c>
-      <c r="AL40" s="2" t="n">
-        <v>66.69854002653088</v>
+      <c r="AK40" s="2" t="n">
+        <v>66.75607167354755</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>108</v>
       </c>
       <c r="AM40" t="n">
-        <v>108</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="AN40" t="n">
-        <v>64.09999999999999</v>
+        <v>3.57</v>
       </c>
       <c r="AO40" t="n">
-        <v>3.57</v>
+        <v>96.8</v>
       </c>
       <c r="AP40" t="n">
-        <v>96.8</v>
+        <v>2.15</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.15</v>
+        <v>142.3</v>
       </c>
       <c r="AR40" t="n">
-        <v>142.3</v>
+        <v>13.17</v>
       </c>
       <c r="AS40" t="n">
-        <v>13.17</v>
+        <v>237</v>
       </c>
       <c r="AT40" t="n">
-        <v>237</v>
+        <v>33.3</v>
       </c>
       <c r="AU40" t="n">
-        <v>33.3</v>
+        <v>3.39</v>
       </c>
       <c r="AV40" t="n">
-        <v>3.39</v>
+        <v>109</v>
       </c>
       <c r="AW40" t="n">
-        <v>109</v>
-      </c>
-      <c r="AX40" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6717,28 +6595,28 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
@@ -6753,102 +6631,99 @@
         <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
         <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y41" t="n">
         <v>1</v>
       </c>
       <c r="Z41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA41" t="n">
-        <v>2</v>
+        <v>36.4</v>
       </c>
       <c r="AB41" t="n">
-        <v>36.4</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD41" t="n">
         <v>208</v>
       </c>
+      <c r="AD41" s="2" t="n">
+        <v>58.60462613582915</v>
+      </c>
       <c r="AE41" s="2" t="n">
-        <v>58.54300466398617</v>
-      </c>
-      <c r="AF41" s="2" t="n">
-        <v>106.1966200596425</v>
+        <v>106.2334684917491</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>299</v>
       </c>
       <c r="AG41" t="n">
-        <v>299</v>
+        <v>1.45</v>
       </c>
       <c r="AH41" t="n">
-        <v>1.45</v>
+        <v>27.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>24.5</v>
+        <v>33.2</v>
       </c>
       <c r="AK41" t="n">
-        <v>33.2</v>
+        <v>186</v>
       </c>
       <c r="AL41" t="n">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="AM41" t="n">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AN41" t="n">
-        <v>42</v>
+        <v>4.7</v>
       </c>
       <c r="AO41" t="n">
-        <v>4.7</v>
+        <v>98</v>
       </c>
       <c r="AP41" t="n">
-        <v>98</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.5</v>
+        <v>134</v>
       </c>
       <c r="AR41" t="n">
-        <v>134</v>
+        <v>15.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>15.33</v>
+        <v>70</v>
       </c>
       <c r="AT41" t="n">
-        <v>70</v>
+        <v>32.3</v>
       </c>
       <c r="AU41" t="n">
-        <v>32.3</v>
+        <v>3.71</v>
       </c>
       <c r="AV41" t="n">
-        <v>3.71</v>
+        <v>112</v>
       </c>
       <c r="AW41" t="n">
-        <v>112</v>
-      </c>
-      <c r="AX41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6895,16 +6770,16 @@
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>1</v>
@@ -6913,96 +6788,93 @@
         <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z42" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA42" s="2" t="n">
+        <v>36.61355718668335</v>
       </c>
       <c r="AB42" s="2" t="n">
-        <v>36.61733561363814</v>
-      </c>
-      <c r="AC42" s="2" t="n">
-        <v>22.09534476603336</v>
+        <v>22.08130095127573</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>105</v>
       </c>
       <c r="AD42" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF42" t="n">
-        <v>140</v>
+        <v>193.2</v>
       </c>
       <c r="AG42" t="n">
-        <v>193.2</v>
+        <v>1.59</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.59</v>
+        <v>3.61</v>
       </c>
       <c r="AI42" t="n">
-        <v>3.61</v>
+        <v>34.4</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34.4</v>
+        <v>14.1</v>
       </c>
       <c r="AK42" t="n">
-        <v>14.1</v>
+        <v>51.1</v>
       </c>
       <c r="AL42" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="AM42" t="n">
         <v>59.5</v>
       </c>
-      <c r="AN42" s="2" t="n">
-        <v>63.50660716833442</v>
+      <c r="AM42" s="2" t="n">
+        <v>63.48754851800643</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.36</v>
       </c>
       <c r="AO42" t="n">
-        <v>3.36</v>
+        <v>108.7</v>
       </c>
       <c r="AP42" t="n">
-        <v>108.7</v>
+        <v>1.97</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.97</v>
+        <v>145.24</v>
       </c>
       <c r="AR42" t="n">
-        <v>145.24</v>
+        <v>3.3</v>
       </c>
       <c r="AS42" t="n">
-        <v>3.3</v>
+        <v>272</v>
       </c>
       <c r="AT42" t="n">
-        <v>272</v>
+        <v>28.1</v>
       </c>
       <c r="AU42" t="n">
-        <v>28.1</v>
+        <v>2.49</v>
       </c>
       <c r="AV42" t="n">
-        <v>2.49</v>
+        <v>86</v>
       </c>
       <c r="AW42" t="n">
-        <v>86</v>
-      </c>
-      <c r="AX42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7034,16 +6906,16 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -7070,93 +6942,90 @@
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="n">
         <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="AC43" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>277</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>128</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>46.73</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>130</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>223</v>
+      </c>
+      <c r="AT43" t="n">
         <v>30</v>
       </c>
-      <c r="AD43" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>76</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>277</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>124.1</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>128</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>46.73</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>130</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>27.43</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>223</v>
-      </c>
       <c r="AU43" t="n">
-        <v>30</v>
+        <v>3.33</v>
       </c>
       <c r="AV43" t="n">
-        <v>3.33</v>
+        <v>100</v>
       </c>
       <c r="AW43" t="n">
-        <v>100</v>
-      </c>
-      <c r="AX43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7178,29 +7047,29 @@
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" t="n">
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
         <v>1</v>
@@ -7212,22 +7081,22 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
@@ -7236,81 +7105,78 @@
         <v>1</v>
       </c>
       <c r="Y44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA44" t="n">
-        <v>1</v>
+        <v>36.4</v>
       </c>
       <c r="AB44" t="n">
-        <v>36.4</v>
+        <v>20</v>
       </c>
       <c r="AC44" t="n">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="AD44" t="n">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="AE44" t="n">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="AF44" t="n">
-        <v>163</v>
+        <v>214.6</v>
       </c>
       <c r="AG44" t="n">
-        <v>214.6</v>
+        <v>2.71</v>
       </c>
       <c r="AH44" t="n">
-        <v>2.71</v>
+        <v>5.73</v>
       </c>
       <c r="AI44" t="n">
-        <v>5.73</v>
+        <v>36.1</v>
       </c>
       <c r="AJ44" t="n">
-        <v>36.1</v>
+        <v>13.6</v>
       </c>
       <c r="AK44" t="n">
-        <v>13.6</v>
+        <v>83.3</v>
       </c>
       <c r="AL44" t="n">
-        <v>83.3</v>
+        <v>113</v>
       </c>
       <c r="AM44" t="n">
-        <v>113</v>
+        <v>56.3</v>
       </c>
       <c r="AN44" t="n">
-        <v>56.3</v>
+        <v>3.24</v>
       </c>
       <c r="AO44" t="n">
-        <v>3.24</v>
+        <v>103.1</v>
       </c>
       <c r="AP44" t="n">
-        <v>103.1</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.17</v>
+        <v>138.62</v>
       </c>
       <c r="AR44" t="n">
-        <v>138.62</v>
+        <v>9</v>
       </c>
       <c r="AS44" t="n">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="AT44" t="n">
-        <v>269</v>
+        <v>37.9</v>
       </c>
       <c r="AU44" t="n">
-        <v>37.9</v>
+        <v>4.06</v>
       </c>
       <c r="AV44" t="n">
-        <v>4.06</v>
+        <v>124</v>
       </c>
       <c r="AW44" t="n">
-        <v>124</v>
-      </c>
-      <c r="AX44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7333,25 +7199,25 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
@@ -7360,13 +7226,13 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>1</v>
@@ -7378,10 +7244,10 @@
         <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W45" t="n">
         <v>1</v>
@@ -7390,81 +7256,78 @@
         <v>1</v>
       </c>
       <c r="Y45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB45" t="n">
         <v>36.5</v>
       </c>
-      <c r="AC45" s="2" t="n">
-        <v>22.57807213242512</v>
+      <c r="AB45" s="2" t="n">
+        <v>22.5870358065441</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>212</v>
       </c>
       <c r="AD45" t="n">
-        <v>212</v>
-      </c>
-      <c r="AE45" t="n">
         <v>110</v>
       </c>
-      <c r="AF45" s="2" t="n">
-        <v>185.5292474745914</v>
+      <c r="AE45" s="2" t="n">
+        <v>185.1421511180941</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>482.8</v>
       </c>
       <c r="AG45" t="n">
-        <v>482.8</v>
+        <v>3.81</v>
       </c>
       <c r="AH45" t="n">
-        <v>3.81</v>
+        <v>5.92</v>
       </c>
       <c r="AI45" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="AJ45" t="n">
         <v>31.3</v>
       </c>
-      <c r="AK45" s="2" t="n">
-        <v>19.14811426636114</v>
+      <c r="AJ45" s="2" t="n">
+        <v>19.146895803633</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>62.2</v>
       </c>
       <c r="AL45" t="n">
-        <v>62.2</v>
+        <v>94</v>
       </c>
       <c r="AM45" t="n">
-        <v>94</v>
+        <v>81.3</v>
       </c>
       <c r="AN45" t="n">
-        <v>81.3</v>
+        <v>3.58</v>
       </c>
       <c r="AO45" t="n">
-        <v>3.58</v>
+        <v>106.7</v>
       </c>
       <c r="AP45" t="n">
-        <v>106.7</v>
+        <v>2.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.33</v>
+        <v>144.3</v>
       </c>
       <c r="AR45" t="n">
-        <v>144.3</v>
+        <v>4.85</v>
       </c>
       <c r="AS45" t="n">
-        <v>4.85</v>
+        <v>86</v>
       </c>
       <c r="AT45" t="n">
-        <v>86</v>
+        <v>17.1</v>
       </c>
       <c r="AU45" t="n">
-        <v>17.1</v>
+        <v>1.69</v>
       </c>
       <c r="AV45" t="n">
-        <v>1.69</v>
+        <v>53</v>
       </c>
       <c r="AW45" t="n">
-        <v>53</v>
-      </c>
-      <c r="AX45" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7496,10 +7359,10 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -7508,10 +7371,10 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
@@ -7523,19 +7386,19 @@
         <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -7547,78 +7410,75 @@
         <v>1</v>
       </c>
       <c r="Z46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AA46" s="2" t="n">
+        <v>36.68769184991253</v>
       </c>
       <c r="AB46" s="2" t="n">
-        <v>36.68716096202323</v>
-      </c>
-      <c r="AC46" s="2" t="n">
-        <v>22.38027834656602</v>
+        <v>22.37942621603109</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>98</v>
       </c>
       <c r="AD46" t="n">
+        <v>78</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>137</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>375.3</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>142</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>307</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AV46" t="n">
         <v>98</v>
       </c>
-      <c r="AE46" t="n">
-        <v>78</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>137</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>375.3</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>106.8</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>142</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>307</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>3.61</v>
-      </c>
       <c r="AW46" t="n">
-        <v>98</v>
-      </c>
-      <c r="AX46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7659,10 +7519,10 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
@@ -7686,93 +7546,90 @@
         <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>126</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>181</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>682</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>229</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>122</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>62</v>
+      </c>
+      <c r="AN47" t="n">
         <v>5</v>
       </c>
-      <c r="W47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>101</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>181</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>682</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>39</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>229</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>122</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>62</v>
-      </c>
       <c r="AO47" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="AP47" t="n">
-        <v>104</v>
+        <v>1.78</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.78</v>
+        <v>138</v>
       </c>
       <c r="AR47" t="n">
-        <v>138</v>
+        <v>30.2</v>
       </c>
       <c r="AS47" t="n">
-        <v>30.2</v>
+        <v>165</v>
       </c>
       <c r="AT47" t="n">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="AU47" t="n">
-        <v>41</v>
+        <v>4.26</v>
       </c>
       <c r="AV47" t="n">
-        <v>4.26</v>
+        <v>125</v>
       </c>
       <c r="AW47" t="n">
-        <v>125</v>
-      </c>
-      <c r="AX47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7804,16 +7661,16 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -7840,10 +7697,10 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
@@ -7852,81 +7709,78 @@
         <v>1</v>
       </c>
       <c r="Y48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>36.6</v>
       </c>
       <c r="AB48" t="n">
-        <v>36.6</v>
+        <v>20</v>
       </c>
       <c r="AC48" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD48" t="n">
         <v>75</v>
       </c>
+      <c r="AD48" s="2" t="n">
+        <v>69.60118726189346</v>
+      </c>
       <c r="AE48" s="2" t="n">
-        <v>69.41926418533988</v>
-      </c>
-      <c r="AF48" s="2" t="n">
-        <v>122.0800416861254</v>
-      </c>
-      <c r="AG48" t="n">
+        <v>122.2644914458519</v>
+      </c>
+      <c r="AF48" t="n">
         <v>416</v>
       </c>
-      <c r="AH48" s="2" t="n">
-        <v>1.884312803990694</v>
+      <c r="AG48" s="2" t="n">
+        <v>1.884692185450229</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>12.1</v>
       </c>
       <c r="AI48" t="n">
-        <v>12.1</v>
+        <v>40.5</v>
       </c>
       <c r="AJ48" t="n">
-        <v>40.5</v>
+        <v>23.9</v>
       </c>
       <c r="AK48" t="n">
-        <v>23.9</v>
+        <v>123</v>
       </c>
       <c r="AL48" t="n">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AM48" t="n">
-        <v>105</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AN48" t="n">
-        <v>74.40000000000001</v>
+        <v>4</v>
       </c>
       <c r="AO48" t="n">
+        <v>104</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>140</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>89</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="AU48" t="n">
         <v>4</v>
       </c>
-      <c r="AP48" t="n">
-        <v>104</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>140</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>89</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>36.8</v>
-      </c>
       <c r="AV48" t="n">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="AW48" t="n">
-        <v>134</v>
-      </c>
-      <c r="AX48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7958,10 +7812,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -7970,10 +7824,10 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>1</v>
@@ -7982,22 +7836,22 @@
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
         <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
@@ -8006,81 +7860,78 @@
         <v>1</v>
       </c>
       <c r="Y49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA49" t="n">
-        <v>1</v>
+        <v>36.2</v>
       </c>
       <c r="AB49" t="n">
-        <v>36.2</v>
+        <v>26</v>
       </c>
       <c r="AC49" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="AD49" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AE49" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AF49" t="n">
-        <v>140</v>
+        <v>231.4</v>
       </c>
       <c r="AG49" t="n">
-        <v>231.4</v>
+        <v>1.57</v>
       </c>
       <c r="AH49" t="n">
-        <v>1.57</v>
+        <v>6.85</v>
       </c>
       <c r="AI49" t="n">
-        <v>6.85</v>
+        <v>30.9</v>
       </c>
       <c r="AJ49" t="n">
-        <v>30.9</v>
+        <v>11.9</v>
       </c>
       <c r="AK49" t="n">
-        <v>11.9</v>
+        <v>56.3</v>
       </c>
       <c r="AL49" t="n">
-        <v>56.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AM49" t="n">
-        <v>74.40000000000001</v>
+        <v>56.6</v>
       </c>
       <c r="AN49" t="n">
-        <v>56.6</v>
+        <v>3.7</v>
       </c>
       <c r="AO49" t="n">
-        <v>3.7</v>
+        <v>106.7</v>
       </c>
       <c r="AP49" t="n">
-        <v>106.7</v>
+        <v>1.94</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.94</v>
+        <v>138.35</v>
       </c>
       <c r="AR49" t="n">
-        <v>138.35</v>
+        <v>12.99</v>
       </c>
       <c r="AS49" t="n">
-        <v>12.99</v>
+        <v>136</v>
       </c>
       <c r="AT49" t="n">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="AU49" t="n">
-        <v>38</v>
+        <v>4.11</v>
       </c>
       <c r="AV49" t="n">
-        <v>4.11</v>
+        <v>123</v>
       </c>
       <c r="AW49" t="n">
-        <v>123</v>
-      </c>
-      <c r="AX49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8103,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -8115,10 +7966,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -8148,16 +7999,16 @@
         <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y50" t="n">
         <v>1</v>
@@ -8166,75 +8017,72 @@
         <v>1</v>
       </c>
       <c r="AA50" t="n">
-        <v>1</v>
+        <v>36.9</v>
       </c>
       <c r="AB50" t="n">
-        <v>36.9</v>
+        <v>18</v>
       </c>
       <c r="AC50" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD50" t="n">
         <v>240</v>
       </c>
+      <c r="AD50" s="2" t="n">
+        <v>76.70377217681637</v>
+      </c>
       <c r="AE50" s="2" t="n">
-        <v>75.34608996872049</v>
-      </c>
-      <c r="AF50" s="2" t="n">
-        <v>156.347129396123</v>
+        <v>157.3770625029485</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>678.4</v>
       </c>
       <c r="AG50" t="n">
-        <v>678.4</v>
+        <v>1.57</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.57</v>
+        <v>25</v>
       </c>
       <c r="AI50" t="n">
-        <v>25</v>
+        <v>30.4</v>
       </c>
       <c r="AJ50" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="AK50" t="n">
         <v>6.7</v>
       </c>
-      <c r="AL50" s="2" t="n">
-        <v>174.7395954004939</v>
+      <c r="AK50" s="2" t="n">
+        <v>174.6938534511206</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>57</v>
       </c>
       <c r="AM50" t="n">
-        <v>57</v>
+        <v>54.2</v>
       </c>
       <c r="AN50" t="n">
-        <v>54.2</v>
+        <v>2.7</v>
       </c>
       <c r="AO50" t="n">
-        <v>2.7</v>
+        <v>92</v>
       </c>
       <c r="AP50" t="n">
-        <v>92</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.67</v>
+        <v>139.9</v>
       </c>
       <c r="AR50" t="n">
-        <v>139.9</v>
+        <v>9.99</v>
       </c>
       <c r="AS50" t="n">
-        <v>9.99</v>
+        <v>169</v>
       </c>
       <c r="AT50" t="n">
-        <v>169</v>
+        <v>24.4</v>
       </c>
       <c r="AU50" t="n">
-        <v>24.4</v>
+        <v>2.35</v>
       </c>
       <c r="AV50" t="n">
-        <v>2.35</v>
+        <v>75</v>
       </c>
       <c r="AW50" t="n">
-        <v>75</v>
-      </c>
-      <c r="AX50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8257,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -8269,10 +8117,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -8281,10 +8129,10 @@
         <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -8302,10 +8150,10 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
@@ -8314,81 +8162,78 @@
         <v>1</v>
       </c>
       <c r="Y51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>36.8</v>
       </c>
       <c r="AB51" t="n">
-        <v>36.8</v>
+        <v>18</v>
       </c>
       <c r="AC51" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="AD51" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="n">
-        <v>78</v>
-      </c>
-      <c r="AF51" t="n">
         <v>140</v>
       </c>
+      <c r="AF51" s="2" t="n">
+        <v>346.300872910814</v>
+      </c>
       <c r="AG51" s="2" t="n">
-        <v>341.5049751713976</v>
+        <v>1.830794004761094</v>
       </c>
       <c r="AH51" s="2" t="n">
-        <v>1.829488320277513</v>
+        <v>8.696298290256781</v>
       </c>
       <c r="AI51" s="2" t="n">
-        <v>8.575406926832168</v>
+        <v>33.82582989217777</v>
       </c>
       <c r="AJ51" s="2" t="n">
-        <v>33.78306470784778</v>
+        <v>19.01774623721549</v>
       </c>
       <c r="AK51" s="2" t="n">
-        <v>19.01521531667291</v>
+        <v>109.7986641563053</v>
       </c>
       <c r="AL51" s="2" t="n">
-        <v>108.8714441170194</v>
+        <v>100.2477717586436</v>
       </c>
       <c r="AM51" s="2" t="n">
-        <v>100.2450855128511</v>
-      </c>
-      <c r="AN51" s="2" t="n">
-        <v>63.67358855380419</v>
+        <v>63.70047411849483</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>3.65</v>
       </c>
       <c r="AO51" t="n">
-        <v>3.65</v>
+        <v>111</v>
       </c>
       <c r="AP51" t="n">
-        <v>111</v>
+        <v>2.05</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AR51" t="n">
         <v>147</v>
       </c>
+      <c r="AR51" s="2" t="n">
+        <v>11.55933585039076</v>
+      </c>
       <c r="AS51" s="2" t="n">
-        <v>11.52387593646631</v>
+        <v>207.9617669339133</v>
       </c>
       <c r="AT51" s="2" t="n">
-        <v>208.5046566439599</v>
+        <v>28.98710997535765</v>
       </c>
       <c r="AU51" s="2" t="n">
-        <v>28.9760556721056</v>
+        <v>3.240840652428429</v>
       </c>
       <c r="AV51" s="2" t="n">
-        <v>3.237071175370493</v>
-      </c>
-      <c r="AW51" s="2" t="n">
-        <v>94.49320302709839</v>
-      </c>
-      <c r="AX51" t="n">
+        <v>94.57460952092981</v>
+      </c>
+      <c r="AW51" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8411,25 +8256,25 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
         <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -8438,10 +8283,10 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -8456,10 +8301,10 @@
         <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
@@ -8468,81 +8313,78 @@
         <v>1</v>
       </c>
       <c r="Y52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>36.7</v>
       </c>
       <c r="AB52" t="n">
-        <v>36.7</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AD52" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AE52" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="AF52" t="n">
-        <v>160</v>
+        <v>557.72</v>
       </c>
       <c r="AG52" t="n">
-        <v>557.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.9399999999999999</v>
+        <v>11.05</v>
       </c>
       <c r="AI52" t="n">
-        <v>11.05</v>
+        <v>42.46</v>
       </c>
       <c r="AJ52" t="n">
-        <v>42.46</v>
+        <v>18.76</v>
       </c>
       <c r="AK52" t="n">
-        <v>18.76</v>
+        <v>87.53</v>
       </c>
       <c r="AL52" t="n">
-        <v>87.53</v>
+        <v>52.5</v>
       </c>
       <c r="AM52" t="n">
-        <v>52.5</v>
+        <v>74.16</v>
       </c>
       <c r="AN52" t="n">
-        <v>74.16</v>
+        <v>4.36</v>
       </c>
       <c r="AO52" t="n">
-        <v>4.36</v>
+        <v>109.88</v>
       </c>
       <c r="AP52" t="n">
-        <v>109.88</v>
+        <v>2.42</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.42</v>
+        <v>141.73</v>
       </c>
       <c r="AR52" t="n">
-        <v>141.73</v>
+        <v>6.34</v>
       </c>
       <c r="AS52" t="n">
-        <v>6.34</v>
+        <v>123</v>
       </c>
       <c r="AT52" t="n">
-        <v>123</v>
+        <v>33.7</v>
       </c>
       <c r="AU52" t="n">
-        <v>33.7</v>
+        <v>3.77</v>
       </c>
       <c r="AV52" t="n">
-        <v>3.77</v>
+        <v>110</v>
       </c>
       <c r="AW52" t="n">
-        <v>110</v>
-      </c>
-      <c r="AX52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8565,13 +8407,13 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -8595,10 +8437,10 @@
         <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>1</v>
@@ -8610,10 +8452,10 @@
         <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
@@ -8622,81 +8464,78 @@
         <v>1</v>
       </c>
       <c r="Y53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z53" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA53" s="2" t="n">
+        <v>36.67272926019287</v>
       </c>
       <c r="AB53" s="2" t="n">
-        <v>36.67316753432622</v>
-      </c>
-      <c r="AC53" s="2" t="n">
-        <v>22.28593692307217</v>
-      </c>
-      <c r="AD53" t="n">
+        <v>22.28175172581369</v>
+      </c>
+      <c r="AC53" t="n">
         <v>55</v>
       </c>
+      <c r="AD53" s="2" t="n">
+        <v>66.83419821817584</v>
+      </c>
       <c r="AE53" s="2" t="n">
-        <v>67.02328569286993</v>
-      </c>
-      <c r="AF53" s="2" t="n">
-        <v>124.2132024647324</v>
+        <v>123.9607906430822</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>346.1</v>
       </c>
       <c r="AG53" t="n">
-        <v>346.1</v>
+        <v>1.23</v>
       </c>
       <c r="AH53" t="n">
-        <v>1.23</v>
+        <v>4.56</v>
       </c>
       <c r="AI53" t="n">
-        <v>4.56</v>
+        <v>39.4</v>
       </c>
       <c r="AJ53" t="n">
-        <v>39.4</v>
+        <v>7.7</v>
       </c>
       <c r="AK53" t="n">
-        <v>7.7</v>
+        <v>59.7</v>
       </c>
       <c r="AL53" t="n">
-        <v>59.7</v>
+        <v>66.5</v>
       </c>
       <c r="AM53" t="n">
-        <v>66.5</v>
+        <v>64</v>
       </c>
       <c r="AN53" t="n">
-        <v>64</v>
+        <v>4.38</v>
       </c>
       <c r="AO53" t="n">
-        <v>4.38</v>
+        <v>106.3</v>
       </c>
       <c r="AP53" t="n">
-        <v>106.3</v>
+        <v>2.12</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.12</v>
+        <v>139.8</v>
       </c>
       <c r="AR53" t="n">
-        <v>139.8</v>
+        <v>3.73</v>
       </c>
       <c r="AS53" t="n">
-        <v>3.73</v>
+        <v>156</v>
       </c>
       <c r="AT53" t="n">
-        <v>156</v>
+        <v>34.8</v>
       </c>
       <c r="AU53" t="n">
-        <v>34.8</v>
+        <v>3.64</v>
       </c>
       <c r="AV53" t="n">
-        <v>3.64</v>
+        <v>117</v>
       </c>
       <c r="AW53" t="n">
-        <v>117</v>
-      </c>
-      <c r="AX53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8731,10 +8570,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -8764,16 +8603,16 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W54" t="n">
         <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y54" t="n">
         <v>1</v>
@@ -8781,76 +8620,73 @@
       <c r="Z54" t="n">
         <v>1</v>
       </c>
-      <c r="AA54" t="n">
-        <v>1</v>
+      <c r="AA54" s="2" t="n">
+        <v>36.66275642062376</v>
       </c>
       <c r="AB54" s="2" t="n">
-        <v>36.66411575646477</v>
-      </c>
-      <c r="AC54" s="2" t="n">
-        <v>22.32162528138183</v>
+        <v>22.31774089347812</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>96</v>
       </c>
       <c r="AD54" t="n">
         <v>96</v>
       </c>
       <c r="AE54" t="n">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AF54" t="n">
-        <v>136</v>
+        <v>328.1</v>
       </c>
       <c r="AG54" t="n">
-        <v>328.1</v>
+        <v>2.23</v>
       </c>
       <c r="AH54" t="n">
-        <v>2.23</v>
+        <v>7.35</v>
       </c>
       <c r="AI54" t="n">
-        <v>7.35</v>
+        <v>39.5</v>
       </c>
       <c r="AJ54" t="n">
-        <v>39.5</v>
+        <v>9.9</v>
       </c>
       <c r="AK54" t="n">
-        <v>9.9</v>
+        <v>104.2</v>
       </c>
       <c r="AL54" t="n">
-        <v>104.2</v>
+        <v>56</v>
       </c>
       <c r="AM54" t="n">
-        <v>56</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AN54" t="n">
-        <v>75.40000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="AO54" t="n">
-        <v>3.26</v>
+        <v>105.9</v>
       </c>
       <c r="AP54" t="n">
-        <v>105.9</v>
+        <v>2.09</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.09</v>
+        <v>141.5</v>
       </c>
       <c r="AR54" t="n">
-        <v>141.5</v>
+        <v>13.87</v>
       </c>
       <c r="AS54" t="n">
-        <v>13.87</v>
+        <v>189</v>
       </c>
       <c r="AT54" t="n">
-        <v>189</v>
+        <v>40.1</v>
       </c>
       <c r="AU54" t="n">
-        <v>40.1</v>
+        <v>4.68</v>
       </c>
       <c r="AV54" t="n">
-        <v>4.68</v>
+        <v>129</v>
       </c>
       <c r="AW54" t="n">
-        <v>129</v>
-      </c>
-      <c r="AX54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8882,10 +8718,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -8897,10 +8733,10 @@
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -8918,93 +8754,90 @@
         <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
         <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z55" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="2" t="n">
-        <v>36.61352761753017</v>
+        <v>1</v>
+      </c>
+      <c r="AA55" s="2" t="n">
+        <v>36.60975052802178</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>20</v>
       </c>
       <c r="AC55" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AD55" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="AE55" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="AF55" t="n">
-        <v>126</v>
+        <v>184.2</v>
       </c>
       <c r="AG55" t="n">
-        <v>184.2</v>
+        <v>1.86</v>
       </c>
       <c r="AH55" t="n">
-        <v>1.86</v>
+        <v>3.17</v>
       </c>
       <c r="AI55" t="n">
-        <v>3.17</v>
+        <v>32.8</v>
       </c>
       <c r="AJ55" t="n">
-        <v>32.8</v>
+        <v>6.1</v>
       </c>
       <c r="AK55" t="n">
-        <v>6.1</v>
+        <v>42</v>
       </c>
       <c r="AL55" t="n">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AM55" t="n">
-        <v>108</v>
+        <v>71.5</v>
       </c>
       <c r="AN55" t="n">
-        <v>71.5</v>
+        <v>3.9</v>
       </c>
       <c r="AO55" t="n">
-        <v>3.9</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AP55" t="n">
-        <v>99.40000000000001</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2.33</v>
+        <v>141.9</v>
       </c>
       <c r="AR55" t="n">
-        <v>141.9</v>
+        <v>6.22</v>
       </c>
       <c r="AS55" t="n">
-        <v>6.22</v>
+        <v>327</v>
       </c>
       <c r="AT55" t="n">
-        <v>327</v>
+        <v>25.9</v>
       </c>
       <c r="AU55" t="n">
-        <v>25.9</v>
+        <v>2.61</v>
       </c>
       <c r="AV55" t="n">
-        <v>2.61</v>
+        <v>80</v>
       </c>
       <c r="AW55" t="n">
-        <v>80</v>
-      </c>
-      <c r="AX55" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9036,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>2</v>
@@ -9048,7 +8881,7 @@
         <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
@@ -9066,99 +8899,96 @@
         <v>1</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB56" t="n">
         <v>36.3</v>
       </c>
-      <c r="AC56" s="2" t="n">
-        <v>22.12147805722073</v>
+      <c r="AB56" s="2" t="n">
+        <v>22.10898868138567</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>80</v>
       </c>
       <c r="AD56" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AE56" t="n">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF56" t="n">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="AG56" t="n">
-        <v>189</v>
+        <v>1.89</v>
       </c>
       <c r="AH56" t="n">
-        <v>1.89</v>
+        <v>15.06</v>
       </c>
       <c r="AI56" t="n">
-        <v>15.06</v>
+        <v>35.6</v>
       </c>
       <c r="AJ56" t="n">
-        <v>35.6</v>
+        <v>22</v>
       </c>
       <c r="AK56" t="n">
-        <v>22</v>
+        <v>187.7</v>
       </c>
       <c r="AL56" t="n">
-        <v>187.7</v>
+        <v>91</v>
       </c>
       <c r="AM56" t="n">
-        <v>91</v>
+        <v>51.93</v>
       </c>
       <c r="AN56" t="n">
-        <v>51.93</v>
-      </c>
-      <c r="AO56" t="n">
         <v>3.7</v>
       </c>
-      <c r="AP56" s="2" t="n">
-        <v>101.1063901545161</v>
+      <c r="AO56" s="2" t="n">
+        <v>101.1071132226423</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="AR56" t="n">
-        <v>142</v>
+        <v>21.14</v>
       </c>
       <c r="AS56" t="n">
-        <v>21.14</v>
+        <v>172</v>
       </c>
       <c r="AT56" t="n">
-        <v>172</v>
+        <v>26.5</v>
       </c>
       <c r="AU56" t="n">
-        <v>26.5</v>
+        <v>2.98</v>
       </c>
       <c r="AV56" t="n">
-        <v>2.98</v>
+        <v>88</v>
       </c>
       <c r="AW56" t="n">
-        <v>88</v>
-      </c>
-      <c r="AX56" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9181,10 +9011,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -9193,19 +9023,19 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
         <v>1</v>
@@ -9226,93 +9056,90 @@
         <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y57" t="n">
         <v>1</v>
       </c>
       <c r="Z57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA57" t="n">
-        <v>2</v>
+        <v>36.6</v>
       </c>
       <c r="AB57" t="n">
-        <v>36.6</v>
+        <v>19</v>
       </c>
       <c r="AC57" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD57" t="n">
         <v>83</v>
       </c>
+      <c r="AD57" s="2" t="n">
+        <v>69.06795773931843</v>
+      </c>
       <c r="AE57" s="2" t="n">
-        <v>68.88227251279386</v>
+        <v>125.7028678270429</v>
       </c>
       <c r="AF57" s="2" t="n">
-        <v>125.5514805653798</v>
-      </c>
-      <c r="AG57" s="2" t="n">
-        <v>247.8788276680695</v>
-      </c>
-      <c r="AH57" t="n">
+        <v>250.8588722925065</v>
+      </c>
+      <c r="AG57" t="n">
         <v>5.73</v>
       </c>
-      <c r="AI57" s="2" t="n">
-        <v>10.76605754915477</v>
+      <c r="AH57" s="2" t="n">
+        <v>10.83191817351651</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>28.2</v>
       </c>
       <c r="AJ57" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="AK57" t="n">
         <v>24.92</v>
       </c>
-      <c r="AL57" s="2" t="n">
-        <v>91.75025999713499</v>
+      <c r="AK57" s="2" t="n">
+        <v>92.32806403990827</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>95.7</v>
       </c>
       <c r="AM57" t="n">
-        <v>95.7</v>
+        <v>55.2</v>
       </c>
       <c r="AN57" t="n">
-        <v>55.2</v>
+        <v>4.51</v>
       </c>
       <c r="AO57" t="n">
-        <v>4.51</v>
+        <v>101.4</v>
       </c>
       <c r="AP57" t="n">
-        <v>101.4</v>
+        <v>2.07</v>
       </c>
       <c r="AQ57" t="n">
-        <v>2.07</v>
+        <v>135.5</v>
       </c>
       <c r="AR57" t="n">
-        <v>135.5</v>
+        <v>7.13</v>
       </c>
       <c r="AS57" t="n">
-        <v>7.13</v>
+        <v>218</v>
       </c>
       <c r="AT57" t="n">
-        <v>218</v>
+        <v>20.9</v>
       </c>
       <c r="AU57" t="n">
-        <v>20.9</v>
+        <v>2.18</v>
       </c>
       <c r="AV57" t="n">
-        <v>2.18</v>
+        <v>65</v>
       </c>
       <c r="AW57" t="n">
-        <v>65</v>
-      </c>
-      <c r="AX57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9335,22 +9162,22 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
         <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -9380,13 +9207,13 @@
         <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X58" t="n">
         <v>1</v>
@@ -9395,78 +9222,75 @@
         <v>1</v>
       </c>
       <c r="Z58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA58" t="n">
-        <v>2</v>
+        <v>36.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>36.5</v>
+        <v>18</v>
       </c>
       <c r="AC58" t="n">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="AD58" t="n">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="AE58" t="n">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="AF58" t="n">
-        <v>112</v>
+        <v>369</v>
       </c>
       <c r="AG58" t="n">
-        <v>369</v>
+        <v>2.2</v>
       </c>
       <c r="AH58" t="n">
-        <v>2.2</v>
+        <v>8.68</v>
       </c>
       <c r="AI58" t="n">
-        <v>8.68</v>
+        <v>32.5</v>
       </c>
       <c r="AJ58" t="n">
-        <v>32.5</v>
+        <v>5.7</v>
       </c>
       <c r="AK58" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AL58" t="n">
         <v>94</v>
       </c>
-      <c r="AM58" s="2" t="n">
-        <v>100.2577007724743</v>
+      <c r="AL58" s="2" t="n">
+        <v>100.2573337268096</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>61.9</v>
       </c>
       <c r="AN58" t="n">
-        <v>61.9</v>
+        <v>4.32</v>
       </c>
       <c r="AO58" t="n">
-        <v>4.32</v>
+        <v>100.1</v>
       </c>
       <c r="AP58" t="n">
-        <v>100.1</v>
+        <v>1.68</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.68</v>
+        <v>147.8</v>
       </c>
       <c r="AR58" t="n">
-        <v>147.8</v>
+        <v>11.8</v>
       </c>
       <c r="AS58" t="n">
-        <v>11.8</v>
+        <v>168</v>
       </c>
       <c r="AT58" t="n">
-        <v>168</v>
+        <v>48.1</v>
       </c>
       <c r="AU58" t="n">
-        <v>48.1</v>
+        <v>4.85</v>
       </c>
       <c r="AV58" t="n">
-        <v>4.85</v>
+        <v>149</v>
       </c>
       <c r="AW58" t="n">
-        <v>149</v>
-      </c>
-      <c r="AX58" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9489,10 +9313,10 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -9507,13 +9331,13 @@
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
         <v>1</v>
@@ -9522,10 +9346,10 @@
         <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -9534,16 +9358,16 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="n">
         <v>1</v>
@@ -9552,75 +9376,72 @@
         <v>1</v>
       </c>
       <c r="AA59" t="n">
-        <v>1</v>
+        <v>36.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="n">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="AD59" t="n">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="AE59" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="AF59" t="n">
-        <v>86</v>
-      </c>
-      <c r="AG59" t="n">
         <v>304</v>
       </c>
-      <c r="AH59" s="2" t="n">
-        <v>1.804232244442778</v>
-      </c>
-      <c r="AI59" t="n">
+      <c r="AG59" s="2" t="n">
+        <v>1.803942780349897</v>
+      </c>
+      <c r="AH59" t="n">
         <v>7.3</v>
       </c>
+      <c r="AI59" s="2" t="n">
+        <v>32.71505728156178</v>
+      </c>
       <c r="AJ59" s="2" t="n">
-        <v>32.70967615107519</v>
-      </c>
-      <c r="AK59" s="2" t="n">
-        <v>19.0858584344505</v>
-      </c>
-      <c r="AL59" t="n">
+        <v>19.08625679082651</v>
+      </c>
+      <c r="AK59" t="n">
         <v>132</v>
       </c>
+      <c r="AL59" s="2" t="n">
+        <v>100.217755548433</v>
+      </c>
       <c r="AM59" s="2" t="n">
-        <v>100.2175225188765</v>
-      </c>
-      <c r="AN59" s="2" t="n">
-        <v>55.59285511354376</v>
+        <v>55.6190996027469</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>2.9</v>
       </c>
       <c r="AO59" t="n">
-        <v>2.9</v>
+        <v>98</v>
       </c>
       <c r="AP59" t="n">
-        <v>98</v>
+        <v>2.09</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.09</v>
+        <v>136</v>
       </c>
       <c r="AR59" t="n">
-        <v>136</v>
+        <v>4.7</v>
       </c>
       <c r="AS59" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AT59" t="n">
         <v>175</v>
       </c>
-      <c r="AU59" s="2" t="n">
-        <v>39.49131650574273</v>
+      <c r="AT59" s="2" t="n">
+        <v>39.54560586129066</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>3.87</v>
       </c>
       <c r="AV59" t="n">
-        <v>3.87</v>
+        <v>128</v>
       </c>
       <c r="AW59" t="n">
-        <v>128</v>
-      </c>
-      <c r="AX59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9643,10 +9464,10 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -9667,16 +9488,16 @@
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
         <v>1</v>
@@ -9688,10 +9509,10 @@
         <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W60" t="n">
         <v>1</v>
@@ -9700,81 +9521,78 @@
         <v>1</v>
       </c>
       <c r="Y60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z60" t="n">
         <v>2</v>
       </c>
       <c r="AA60" t="n">
-        <v>2</v>
+        <v>36.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>36.5</v>
+        <v>21</v>
       </c>
       <c r="AC60" t="n">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="AD60" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AE60" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AF60" t="n">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="AG60" t="n">
-        <v>234</v>
+        <v>1.05</v>
       </c>
       <c r="AH60" t="n">
-        <v>1.05</v>
+        <v>5.26</v>
       </c>
       <c r="AI60" t="n">
-        <v>5.26</v>
+        <v>34.3</v>
       </c>
       <c r="AJ60" t="n">
-        <v>34.3</v>
+        <v>5.04</v>
       </c>
       <c r="AK60" t="n">
-        <v>5.04</v>
+        <v>51.8</v>
       </c>
       <c r="AL60" t="n">
-        <v>51.8</v>
+        <v>153.1</v>
       </c>
       <c r="AM60" t="n">
-        <v>153.1</v>
+        <v>64.08</v>
       </c>
       <c r="AN60" t="n">
-        <v>64.08</v>
+        <v>3.8</v>
       </c>
       <c r="AO60" t="n">
-        <v>3.8</v>
+        <v>104</v>
       </c>
       <c r="AP60" t="n">
-        <v>104</v>
+        <v>2.1</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.1</v>
+        <v>140</v>
       </c>
       <c r="AR60" t="n">
-        <v>140</v>
+        <v>6.28</v>
       </c>
       <c r="AS60" t="n">
-        <v>6.28</v>
+        <v>420</v>
       </c>
       <c r="AT60" t="n">
-        <v>420</v>
+        <v>29.4</v>
       </c>
       <c r="AU60" t="n">
-        <v>29.4</v>
+        <v>3.34</v>
       </c>
       <c r="AV60" t="n">
-        <v>3.34</v>
+        <v>95</v>
       </c>
       <c r="AW60" t="n">
-        <v>95</v>
-      </c>
-      <c r="AX60" t="n">
         <v>2</v>
       </c>
     </row>
